--- a/R/data/quiz241104_tmp.xlsx
+++ b/R/data/quiz241104_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="244">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -461,6 +461,288 @@
   </si>
   <si>
     <t>정재현</t>
+  </si>
+  <si>
+    <t>jw010705@naver.com</t>
+  </si>
+  <si>
+    <t>유정우</t>
+  </si>
+  <si>
+    <t>estevan980@naver.com</t>
+  </si>
+  <si>
+    <t>서현성</t>
+  </si>
+  <si>
+    <t>ming041230@gmail.com</t>
+  </si>
+  <si>
+    <t>서민지</t>
+  </si>
+  <si>
+    <t>ye_ji_02@naver.com</t>
+  </si>
+  <si>
+    <t>식품영양학과</t>
+  </si>
+  <si>
+    <t>전예지</t>
+  </si>
+  <si>
+    <t>inheo0428@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사회복지학부</t>
+  </si>
+  <si>
+    <t>허인</t>
+  </si>
+  <si>
+    <t>pinkyeon7@gmail.com</t>
+  </si>
+  <si>
+    <t>박채연</t>
+  </si>
+  <si>
+    <t>limse1998@naver.com</t>
+  </si>
+  <si>
+    <t>임민영</t>
+  </si>
+  <si>
+    <t>dialect11111@gmail.com</t>
+  </si>
+  <si>
+    <t>최하영</t>
+  </si>
+  <si>
+    <t>jhue0901@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비지니스학과</t>
+  </si>
+  <si>
+    <t>전하율</t>
+  </si>
+  <si>
+    <t>kimseyoung0130@gmail.com</t>
+  </si>
+  <si>
+    <t>중국학과</t>
+  </si>
+  <si>
+    <t>김세영</t>
+  </si>
+  <si>
+    <t>0616sdh@naver.com</t>
+  </si>
+  <si>
+    <t>신동현</t>
+  </si>
+  <si>
+    <t>915rlaalstjd@naver.com</t>
+  </si>
+  <si>
+    <t>스마트IoT</t>
+  </si>
+  <si>
+    <t>김민성</t>
+  </si>
+  <si>
+    <t>csyoon1215@naver.com</t>
+  </si>
+  <si>
+    <t>천세윤</t>
+  </si>
+  <si>
+    <t>jcskej0@hanmail.net</t>
+  </si>
+  <si>
+    <t>사회복지학과</t>
+  </si>
+  <si>
+    <t>김은주</t>
+  </si>
+  <si>
+    <t>johs0105@naver.com</t>
+  </si>
+  <si>
+    <t>조한신</t>
+  </si>
+  <si>
+    <t>seollo020531@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학과</t>
+  </si>
+  <si>
+    <t>설창원</t>
+  </si>
+  <si>
+    <t>junsa215909@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>leeaumin1@naver.com</t>
+  </si>
+  <si>
+    <t>이수민</t>
+  </si>
+  <si>
+    <t>sochi1108@naver.com</t>
+  </si>
+  <si>
+    <t>이소정</t>
+  </si>
+  <si>
+    <t>bsgtopriner0@gmail.com</t>
+  </si>
+  <si>
+    <t>최윤혁</t>
+  </si>
+  <si>
+    <t>seeun1012123@naver.com</t>
+  </si>
+  <si>
+    <t>이세은</t>
+  </si>
+  <si>
+    <t>youjin9387@naver.com</t>
+  </si>
+  <si>
+    <t>러시아학과</t>
+  </si>
+  <si>
+    <t>김유진</t>
+  </si>
+  <si>
+    <t>uhan0802@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠</t>
+  </si>
+  <si>
+    <t>이유한</t>
+  </si>
+  <si>
+    <t>a22234781@gmail.com</t>
+  </si>
+  <si>
+    <t>wonda0322@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">글로벌학부 </t>
+  </si>
+  <si>
+    <t>원다연</t>
+  </si>
+  <si>
+    <t>dkaldmswl05@gmail.com</t>
+  </si>
+  <si>
+    <t>엄은지</t>
+  </si>
+  <si>
+    <t>kimjh1165@naver.com</t>
+  </si>
+  <si>
+    <t>김재하</t>
+  </si>
+  <si>
+    <t>khi031127@naver.com</t>
+  </si>
+  <si>
+    <t>김현일</t>
+  </si>
+  <si>
+    <t>jinsugyeom49@gmail.com</t>
+  </si>
+  <si>
+    <t>진수겸</t>
+  </si>
+  <si>
+    <t>leesamchi0511@gmail.com</t>
+  </si>
+  <si>
+    <t>홍지민</t>
+  </si>
+  <si>
+    <t>jjww74@naver.com</t>
+  </si>
+  <si>
+    <t>최재원</t>
+  </si>
+  <si>
+    <t>bgm5082@gmail.com</t>
+  </si>
+  <si>
+    <t>배경민</t>
+  </si>
+  <si>
+    <t>jsk991012@naver.com</t>
+  </si>
+  <si>
+    <t>김준서</t>
+  </si>
+  <si>
+    <t>lovearamis3@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터 테크</t>
+  </si>
+  <si>
+    <t>정현우</t>
+  </si>
+  <si>
+    <t>k1j40405@gmail.com</t>
+  </si>
+  <si>
+    <t>화학과</t>
+  </si>
+  <si>
+    <t>김진아</t>
+  </si>
+  <si>
+    <t>oepdwrtyy@gmail.com</t>
+  </si>
+  <si>
+    <t>강종현</t>
+  </si>
+  <si>
+    <t>imhyeongu00@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>임현구</t>
+  </si>
+  <si>
+    <t>cjc0623@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학과 콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>최현민</t>
+  </si>
+  <si>
+    <t>a52154309@gmail.com</t>
+  </si>
+  <si>
+    <t>황우진</t>
+  </si>
+  <si>
+    <t>minseok1937@gmail.com</t>
+  </si>
+  <si>
+    <t>경영</t>
+  </si>
+  <si>
+    <t>김민석</t>
   </si>
 </sst>
 </file>
@@ -491,7 +773,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -647,11 +929,25 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -695,6 +991,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -755,7 +1054,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N42" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N82" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2685,44 +2984,1684 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="13">
+      <c r="A42" s="10">
         <v>45600.75326208334</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="11">
         <v>2.0212754E7</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="14" t="s">
+      <c r="F42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L42" s="14" t="s">
+      <c r="L42" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M42" s="14" t="s">
+      <c r="M42" s="11" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7">
+        <v>45600.76911304398</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="8">
+        <v>2.0202834E7</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>45600.79241326389</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="11">
+        <v>2.0182118E7</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7">
+        <v>45600.80971997685</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="8">
+        <v>2.0242525E7</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>45600.82150342593</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="11">
+        <v>2.0213839E7</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7">
+        <v>45600.834997881946</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="8">
+        <v>2.0242358E7</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>45600.83568027778</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="11">
+        <v>2.0227141E7</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7">
+        <v>45600.84000405093</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="8">
+        <v>2.0172896E7</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
+        <v>45600.84073283565</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="11">
+        <v>2.0243051E7</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7">
+        <v>45600.84108370371</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="8">
+        <v>2.024642E7</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>45600.84636221065</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="11">
+        <v>2.0231506E7</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7">
+        <v>45600.85440016203</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="8">
+        <v>2.020273E7</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>45600.8847191088</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="11">
+        <v>2.0205133E7</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7">
+        <v>45600.92974078703</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="8">
+        <v>2.0246292E7</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>45600.93554145833</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="11">
+        <v>2.0227024E7</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N56" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7">
+        <v>45600.93607738426</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="8">
+        <v>2.0172435E7</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>45600.9588525463</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="11">
+        <v>2.0225175E7</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7">
+        <v>45600.96339369213</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="8">
+        <v>2.0203006E7</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>45600.96355184028</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="11">
+        <v>2.0243E7</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7">
+        <v>45600.98299880787</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="8">
+        <v>2.0242551E7</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
+        <v>45601.004236504625</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="11">
+        <v>2.0242636E7</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7">
+        <v>45601.00641271991</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="8">
+        <v>2.0241068E7</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>45601.03188412037</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="11">
+        <v>2.0241709E7</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N64" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7">
+        <v>45601.09064388889</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" s="8">
+        <v>2.0212555E7</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>45601.09585479167</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="11">
+        <v>2.0201076E7</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7">
+        <v>45601.37007957176</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="8">
+        <v>2.0246414E7</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>45601.41264546296</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="11">
+        <v>2.0221059E7</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N68" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7">
+        <v>45601.45864211806</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" s="8">
+        <v>2.019381E7</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>45601.45871908565</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="11">
+        <v>2.0246232E7</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N70" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7">
+        <v>45601.46840208334</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="8">
+        <v>2.024304E7</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>45601.46985083334</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="11">
+        <v>2.0243062E7</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N72" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7">
+        <v>45601.516812581016</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="8">
+        <v>2.0203055E7</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
+        <v>45601.517089305555</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="11">
+        <v>2.022296E7</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7">
+        <v>45601.517754479166</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D75" s="8">
+        <v>2.0182519E7</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>45601.52330728009</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="11">
+        <v>2.0203251E7</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7">
+        <v>45601.525794085646</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="8">
+        <v>2.0243408E7</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>45601.55881645833</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="11">
+        <v>2.0241003E7</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N78" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7">
+        <v>45601.560751666664</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D79" s="8">
+        <v>2.0192575E7</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>45601.573228622685</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D80" s="11">
+        <v>2.0215264E7</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N80" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7">
+        <v>45601.57447972222</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="8">
+        <v>2.0243968E7</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="13">
+        <v>45601.58076898148</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D82" s="14">
+        <v>2.0202915E7</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J82" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K82" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L82" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N82" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241104_tmp.xlsx
+++ b/R/data/quiz241104_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="354">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -743,6 +743,336 @@
   </si>
   <si>
     <t>김민석</t>
+  </si>
+  <si>
+    <t>leecm051202@gmail.com</t>
+  </si>
+  <si>
+    <t>이채민</t>
+  </si>
+  <si>
+    <t>kkkssshhh2005@naver.com</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>dpdlvldzmfkd1218@naver.com</t>
+  </si>
+  <si>
+    <t>이다혜</t>
+  </si>
+  <si>
+    <t>ystop061012@naver.com</t>
+  </si>
+  <si>
+    <t>손연수</t>
+  </si>
+  <si>
+    <t>kwoseoyoung0923@gmail.com</t>
+  </si>
+  <si>
+    <t>권서영</t>
+  </si>
+  <si>
+    <t>minheart7844@gmail.com</t>
+  </si>
+  <si>
+    <t>권민</t>
+  </si>
+  <si>
+    <t>rhkwp0323@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT</t>
+  </si>
+  <si>
+    <t>유도영</t>
+  </si>
+  <si>
+    <t>sws62550100@gmail.com</t>
+  </si>
+  <si>
+    <t>서우성</t>
+  </si>
+  <si>
+    <t>ckswo00@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터</t>
+  </si>
+  <si>
+    <t>이찬재</t>
+  </si>
+  <si>
+    <t>dlwl0898@naver.com</t>
+  </si>
+  <si>
+    <t>이지원</t>
+  </si>
+  <si>
+    <t>ju0_park@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠it</t>
+  </si>
+  <si>
+    <t>박주영</t>
+  </si>
+  <si>
+    <t>alwnd816@gmail.com</t>
+  </si>
+  <si>
+    <t>한재은</t>
+  </si>
+  <si>
+    <t>jiteh9491@gmail.com</t>
+  </si>
+  <si>
+    <t>한지예</t>
+  </si>
+  <si>
+    <t>choigy050404@gmail.com</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>hsjenny99@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부</t>
+  </si>
+  <si>
+    <t>전소현</t>
+  </si>
+  <si>
+    <t>cold050317@gmail.com</t>
+  </si>
+  <si>
+    <t>김찬종</t>
+  </si>
+  <si>
+    <t>znfh527gkfn@naver.com</t>
+  </si>
+  <si>
+    <t>조준연</t>
+  </si>
+  <si>
+    <t>hug60600@gmail.com</t>
+  </si>
+  <si>
+    <t>황의건</t>
+  </si>
+  <si>
+    <t>rivernine369@naver.com</t>
+  </si>
+  <si>
+    <t>강재구</t>
+  </si>
+  <si>
+    <t>aone7537@naver.com</t>
+  </si>
+  <si>
+    <t>박현진</t>
+  </si>
+  <si>
+    <t>cjfghksznszns1100119@naver.com</t>
+  </si>
+  <si>
+    <t>유철환</t>
+  </si>
+  <si>
+    <t>corsica2001@naver.com</t>
+  </si>
+  <si>
+    <t>경제학과</t>
+  </si>
+  <si>
+    <t>박상우</t>
+  </si>
+  <si>
+    <t>kter0506@naver.com</t>
+  </si>
+  <si>
+    <t>김태은</t>
+  </si>
+  <si>
+    <t>bagj11532@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>zorotod@naver.com</t>
+  </si>
+  <si>
+    <t>김승욱</t>
+  </si>
+  <si>
+    <t>syw050819@naver.com</t>
+  </si>
+  <si>
+    <t>신예원</t>
+  </si>
+  <si>
+    <t>bin_1014@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠 전공</t>
+  </si>
+  <si>
+    <t>김명빈</t>
+  </si>
+  <si>
+    <t>slaim7888@gmail.com</t>
+  </si>
+  <si>
+    <t>이준민</t>
+  </si>
+  <si>
+    <t>efgh124@naver.com</t>
+  </si>
+  <si>
+    <t>정윤서</t>
+  </si>
+  <si>
+    <t>ohsolbi050521@gmail.com</t>
+  </si>
+  <si>
+    <t>오솔비</t>
+  </si>
+  <si>
+    <t>herdy2154@naver.com</t>
+  </si>
+  <si>
+    <t>한녕균</t>
+  </si>
+  <si>
+    <t>joazzzzz@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터전공</t>
+  </si>
+  <si>
+    <t>김진구</t>
+  </si>
+  <si>
+    <t>skyhaneul0910@naver.com</t>
+  </si>
+  <si>
+    <t>권하늘</t>
+  </si>
+  <si>
+    <t>yhc0564@naver.com</t>
+  </si>
+  <si>
+    <t>윤홍채</t>
+  </si>
+  <si>
+    <t>liz030404@naver.com</t>
+  </si>
+  <si>
+    <t>데이터사언스학부</t>
+  </si>
+  <si>
+    <t>이선주</t>
+  </si>
+  <si>
+    <t>wtbaa33@naver.com</t>
+  </si>
+  <si>
+    <t>김민교</t>
+  </si>
+  <si>
+    <t>ertyhx3@gmail.com</t>
+  </si>
+  <si>
+    <t>김미소</t>
+  </si>
+  <si>
+    <t>schoe357@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학부</t>
+  </si>
+  <si>
+    <t>최성민</t>
+  </si>
+  <si>
+    <t>dabinchoe05@gmail.com</t>
+  </si>
+  <si>
+    <t>최다빈</t>
+  </si>
+  <si>
+    <t>paulcho1004@naver.com</t>
+  </si>
+  <si>
+    <t>조민형</t>
+  </si>
+  <si>
+    <t>doheehana@naver.com</t>
+  </si>
+  <si>
+    <t>김도희</t>
+  </si>
+  <si>
+    <t>woosm050530@gmail.com</t>
+  </si>
+  <si>
+    <t>우수민</t>
+  </si>
+  <si>
+    <t>jmkkom@naver.com</t>
+  </si>
+  <si>
+    <t>전민균</t>
+  </si>
+  <si>
+    <t>sf12nam@naver.com</t>
+  </si>
+  <si>
+    <t>남유정</t>
+  </si>
+  <si>
+    <t>jungha051026@naver.com</t>
+  </si>
+  <si>
+    <t>윤정하</t>
+  </si>
+  <si>
+    <t>scott1234698@naver.com</t>
+  </si>
+  <si>
+    <t>우성진</t>
+  </si>
+  <si>
+    <t>kth4159@gmail.com</t>
+  </si>
+  <si>
+    <t>김태희</t>
+  </si>
+  <si>
+    <t>withhowon@gmail.com</t>
+  </si>
+  <si>
+    <t>서호원</t>
+  </si>
+  <si>
+    <t>narinsong3@gmail.com</t>
+  </si>
+  <si>
+    <t>송나린</t>
+  </si>
+  <si>
+    <t>jenniferdy@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">간호학과 </t>
+  </si>
+  <si>
+    <t>권도연</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1384,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N82" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N132" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -4624,44 +4954,2094 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="13">
+      <c r="A82" s="10">
         <v>45601.58076898148</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D82" s="11">
         <v>2.0202915E7</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="F82" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="14" t="s">
+      <c r="F82" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I82" s="14" t="s">
+      <c r="I82" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J82" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K82" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L82" s="14" t="s">
+      <c r="J82" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L82" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N82" s="15" t="s">
+      <c r="N82" s="12" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7">
+        <v>45601.60004978009</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="8">
+        <v>2.0242344E7</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>45601.600732708335</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" s="11">
+        <v>2.024321E7</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7">
+        <v>45601.60875476852</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="8">
+        <v>2.0243933E7</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
+        <v>45601.63639756944</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="11">
+        <v>2.0246628E7</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N86" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7">
+        <v>45601.63876068287</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="8">
+        <v>2.0243606E7</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="10">
+        <v>45601.64682805556</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="11">
+        <v>2.0242503E7</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7">
+        <v>45601.65759123843</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D89" s="8">
+        <v>2.023521E7</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="10">
+        <v>45601.670863680556</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90" s="11">
+        <v>2.0227036E7</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N90" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7">
+        <v>45601.675323703705</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D91" s="8">
+        <v>2.0217151E7</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="10">
+        <v>45601.697649699076</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D92" s="11">
+        <v>2.0202561E7</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7">
+        <v>45601.70707071759</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" s="8">
+        <v>2.019517E7</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N93" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="10">
+        <v>45601.73453215278</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" s="11">
+        <v>2.023306E7</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N94" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7">
+        <v>45601.734552442125</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D95" s="8">
+        <v>2.0246302E7</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="10">
+        <v>45601.736085069446</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D96" s="11">
+        <v>2.0246294E7</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7">
+        <v>45601.77885179398</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D97" s="8">
+        <v>2.0245246E7</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="10">
+        <v>45601.79246498842</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="11">
+        <v>2.0242518E7</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7">
+        <v>45601.802507037035</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99" s="8">
+        <v>2.0222359E7</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="10">
+        <v>45601.811799247684</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" s="11">
+        <v>2.0243065E7</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N100" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7">
+        <v>45601.83932327546</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D101" s="8">
+        <v>2.0212801E7</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N101" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="10">
+        <v>45601.844502395834</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D102" s="11">
+        <v>2.0246241E7</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7">
+        <v>45601.85786913194</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103" s="8">
+        <v>2.0243829E7</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N103" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="10">
+        <v>45601.8613094676</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D104" s="11">
+        <v>2.0202817E7</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="7">
+        <v>45601.86423525463</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105" s="8">
+        <v>2.0243813E7</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="10">
+        <v>45601.87669704861</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="11">
+        <v>2.024412E7</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="7">
+        <v>45601.88168986111</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107" s="8">
+        <v>2.0193508E7</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N107" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="10">
+        <v>45601.882714363426</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" s="11">
+        <v>2.0246251E7</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="7">
+        <v>45601.886792627316</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D109" s="8">
+        <v>2.0202706E7</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="10">
+        <v>45601.89403631944</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" s="11">
+        <v>2.0242428E7</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N110" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7">
+        <v>45601.927053067135</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111" s="8">
+        <v>2.0246282E7</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K111" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N111" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="10">
+        <v>45601.92841366898</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D112" s="11">
+        <v>2.0246631E7</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N112" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="7">
+        <v>45601.932526261575</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" s="8">
+        <v>2.019301E7</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J113" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="10">
+        <v>45601.95109894676</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D114" s="11">
+        <v>2.0203213E7</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M114" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="7">
+        <v>45601.985532743056</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D115" s="8">
+        <v>2.0243803E7</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J115" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N115" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="10">
+        <v>45602.021305277776</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D116" s="11">
+        <v>2.0192931E7</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K116" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N116" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="7">
+        <v>45602.05033751157</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D117" s="8">
+        <v>2.0243237E7</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J117" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M117" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="10">
+        <v>45602.06483142361</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D118" s="11">
+        <v>2.0241605E7</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L118" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N118" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="7">
+        <v>45602.06950412037</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="8">
+        <v>2.0242607E7</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="10">
+        <v>45602.09962670139</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D120" s="11">
+        <v>2.0246782E7</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7">
+        <v>45602.10045601852</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D121" s="8">
+        <v>2.024678E7</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M121" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="10">
+        <v>45602.41946638889</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D122" s="11">
+        <v>2.0193836E7</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L122" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N122" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="7">
+        <v>45602.42222736111</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D123" s="8">
+        <v>2.0246215E7</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K123" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N123" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="10">
+        <v>45602.48651966435</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" s="11">
+        <v>2.024363E7</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J124" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L124" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N124" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="7">
+        <v>45602.509568078705</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D125" s="8">
+        <v>2.0203425E7</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K125" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M125" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="10">
+        <v>45602.539646840276</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D126" s="11">
+        <v>2.0233716E7</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I126" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L126" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M126" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="7">
+        <v>45602.54440679398</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C127" s="8">
+        <v>2.0245213E7</v>
+      </c>
+      <c r="D127" s="8">
+        <v>2.0245213E7</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K127" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M127" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="10">
+        <v>45602.551491446764</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D128" s="11">
+        <v>2.0246633E7</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K128" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L128" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M128" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="7">
+        <v>45602.56954328704</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D129" s="8">
+        <v>2.024623E7</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K129" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N129" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="10">
+        <v>45602.57966497685</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="11">
+        <v>2.0246245E7</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K130" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L130" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N130" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="7">
+        <v>45602.63839678241</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D131" s="8">
+        <v>2.0246248E7</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N131" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="13">
+        <v>45602.640377800926</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="D132" s="14">
+        <v>2.0246206E7</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H132" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J132" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K132" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L132" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N132" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241104_tmp.xlsx
+++ b/R/data/quiz241104_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="513">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1073,6 +1073,483 @@
   </si>
   <si>
     <t>권도연</t>
+  </si>
+  <si>
+    <t>sally200408@gmail.com</t>
+  </si>
+  <si>
+    <t>박경화</t>
+  </si>
+  <si>
+    <t>whrudghks030604@naver.com</t>
+  </si>
+  <si>
+    <t>조경환</t>
+  </si>
+  <si>
+    <t>creeper_a@naver.com</t>
+  </si>
+  <si>
+    <t>최대현</t>
+  </si>
+  <si>
+    <t>csj450422@gmail.com</t>
+  </si>
+  <si>
+    <t>장승진</t>
+  </si>
+  <si>
+    <t>pcw5766@naver.com</t>
+  </si>
+  <si>
+    <t>박찬웅</t>
+  </si>
+  <si>
+    <t>y5het3e@naver.com</t>
+  </si>
+  <si>
+    <t>박재근</t>
+  </si>
+  <si>
+    <t>kingdom980201@gmail.com</t>
+  </si>
+  <si>
+    <t>언어청각하과</t>
+  </si>
+  <si>
+    <t>박성경</t>
+  </si>
+  <si>
+    <t>eung4077@gmail.com</t>
+  </si>
+  <si>
+    <t>강은결</t>
+  </si>
+  <si>
+    <t>nyj7013@naver.com</t>
+  </si>
+  <si>
+    <t>노예진</t>
+  </si>
+  <si>
+    <t>kayla1071702@gmail.com</t>
+  </si>
+  <si>
+    <t>임혜빈</t>
+  </si>
+  <si>
+    <t>jjy021026@gmail.com</t>
+  </si>
+  <si>
+    <t>전지환</t>
+  </si>
+  <si>
+    <t>sehyeon0330@naver.com</t>
+  </si>
+  <si>
+    <t>김세현</t>
+  </si>
+  <si>
+    <t>0223wltn@naver.com</t>
+  </si>
+  <si>
+    <t>홍지수</t>
+  </si>
+  <si>
+    <t>leesy470666@gmail.com</t>
+  </si>
+  <si>
+    <t>이수용</t>
+  </si>
+  <si>
+    <t>kmc20051114@gmail.com</t>
+  </si>
+  <si>
+    <t>김민찬</t>
+  </si>
+  <si>
+    <t>twenty__dec@naver.com</t>
+  </si>
+  <si>
+    <t>채희주</t>
+  </si>
+  <si>
+    <t>ginny1024@naver.com</t>
+  </si>
+  <si>
+    <t>김희원</t>
+  </si>
+  <si>
+    <t>jh2600646@naver.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스</t>
+  </si>
+  <si>
+    <t>박지훈</t>
+  </si>
+  <si>
+    <t>leeyelim0320@gmail.com</t>
+  </si>
+  <si>
+    <t>이예림</t>
+  </si>
+  <si>
+    <t>ujeong1030@gmail.com</t>
+  </si>
+  <si>
+    <t>최유정</t>
+  </si>
+  <si>
+    <t>asrud8755@naver.com</t>
+  </si>
+  <si>
+    <t>김민경</t>
+  </si>
+  <si>
+    <t>thwls5541@gmail.com</t>
+  </si>
+  <si>
+    <t>김소원</t>
+  </si>
+  <si>
+    <t>hje10314@naver.com</t>
+  </si>
+  <si>
+    <t>한지은</t>
+  </si>
+  <si>
+    <t>simje9907@gmail.com</t>
+  </si>
+  <si>
+    <t>심재민</t>
+  </si>
+  <si>
+    <t>jaehun081805@gmail.com</t>
+  </si>
+  <si>
+    <t>이재훈</t>
+  </si>
+  <si>
+    <t>il8v6u@naver.com</t>
+  </si>
+  <si>
+    <t>최윤서</t>
+  </si>
+  <si>
+    <t>youlove6767@naver.com</t>
+  </si>
+  <si>
+    <t>임소이</t>
+  </si>
+  <si>
+    <t>gusquddus20@naver.com</t>
+  </si>
+  <si>
+    <t>현병연</t>
+  </si>
+  <si>
+    <t>leenara633@gmail.com</t>
+  </si>
+  <si>
+    <t>이나라</t>
+  </si>
+  <si>
+    <t>eunjin6604__@naver.com</t>
+  </si>
+  <si>
+    <t>남은진</t>
+  </si>
+  <si>
+    <t>t01094887068@gmail.com</t>
+  </si>
+  <si>
+    <t>손민재</t>
+  </si>
+  <si>
+    <t>tjwjddn1130@gmail.com</t>
+  </si>
+  <si>
+    <t>서정우</t>
+  </si>
+  <si>
+    <t>a01051265769@gmail.com</t>
+  </si>
+  <si>
+    <t>안현영</t>
+  </si>
+  <si>
+    <t>bvc023@naver.com</t>
+  </si>
+  <si>
+    <t>김수영</t>
+  </si>
+  <si>
+    <t>wlduddember6@gmail.com</t>
+  </si>
+  <si>
+    <t>이지영</t>
+  </si>
+  <si>
+    <t>rlarkfka2255@naver.com</t>
+  </si>
+  <si>
+    <t>김가람</t>
+  </si>
+  <si>
+    <t>limjh3027@naver.com</t>
+  </si>
+  <si>
+    <t>임종현</t>
+  </si>
+  <si>
+    <t>gomdolri05@naver.com</t>
+  </si>
+  <si>
+    <t>이아영</t>
+  </si>
+  <si>
+    <t>kimminseon2102@naver.com</t>
+  </si>
+  <si>
+    <t>김민선</t>
+  </si>
+  <si>
+    <t>cobas67@naver.com</t>
+  </si>
+  <si>
+    <t>스마트iot</t>
+  </si>
+  <si>
+    <t>박근혁</t>
+  </si>
+  <si>
+    <t>ydchufd@naver.com</t>
+  </si>
+  <si>
+    <t>정유민</t>
+  </si>
+  <si>
+    <t>kcwel1109@gmail.com</t>
+  </si>
+  <si>
+    <t>고미연</t>
+  </si>
+  <si>
+    <t>wnsrl2498@naver.com</t>
+  </si>
+  <si>
+    <t>김준기</t>
+  </si>
+  <si>
+    <t>chlwnstn777@naver.com</t>
+  </si>
+  <si>
+    <t>최준수</t>
+  </si>
+  <si>
+    <t>andy9925@naver.com</t>
+  </si>
+  <si>
+    <t>김무극</t>
+  </si>
+  <si>
+    <t>gmlfkr6241@naver.com</t>
+  </si>
+  <si>
+    <t>한희락</t>
+  </si>
+  <si>
+    <t>ejsl5231@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠학과</t>
+  </si>
+  <si>
+    <t>이유찬</t>
+  </si>
+  <si>
+    <t>dltlgus1119@naver.com</t>
+  </si>
+  <si>
+    <t>이시현</t>
+  </si>
+  <si>
+    <t>anfytlrtk3@naver.com</t>
+  </si>
+  <si>
+    <t>윤가영</t>
+  </si>
+  <si>
+    <t>baeseung1211@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>배승혁</t>
+  </si>
+  <si>
+    <t>kimguswls6685@naver.com</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>ehgmldo2@naver.com</t>
+  </si>
+  <si>
+    <t>데이터테크</t>
+  </si>
+  <si>
+    <t>박도희</t>
+  </si>
+  <si>
+    <t>03jungwoo@naver.com</t>
+  </si>
+  <si>
+    <t>김정우</t>
+  </si>
+  <si>
+    <t>dbfrhr02@naver.com</t>
+  </si>
+  <si>
+    <t>심건휘</t>
+  </si>
+  <si>
+    <t>h20241207@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>영어영문학과</t>
+  </si>
+  <si>
+    <t>문소정</t>
+  </si>
+  <si>
+    <t>suji032091@naver.com</t>
+  </si>
+  <si>
+    <t>kangdmscks@gmail.com</t>
+  </si>
+  <si>
+    <t>융합과학수사학과</t>
+  </si>
+  <si>
+    <t>강은찬</t>
+  </si>
+  <si>
+    <t>hm703711@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어학과</t>
+  </si>
+  <si>
+    <t>박현민</t>
+  </si>
+  <si>
+    <t>detect5641@gmail.com</t>
+  </si>
+  <si>
+    <t>이주성</t>
+  </si>
+  <si>
+    <t>ann12ann1209@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜원</t>
+  </si>
+  <si>
+    <t>dlrua105@naver.com</t>
+  </si>
+  <si>
+    <t>데이터사이언수학부</t>
+  </si>
+  <si>
+    <t>이겸</t>
+  </si>
+  <si>
+    <t>06kongkongsoon@gmail.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>wogh1587@naver.com</t>
+  </si>
+  <si>
+    <t>현재호</t>
+  </si>
+  <si>
+    <t>aldidrhemdgkrry123@gmail.com</t>
+  </si>
+  <si>
+    <t>김용우</t>
+  </si>
+  <si>
+    <t>smainas20@naver.com</t>
+  </si>
+  <si>
+    <t>정민서</t>
+  </si>
+  <si>
+    <t>ehddn0504@naver.com</t>
+  </si>
+  <si>
+    <t>신동우</t>
+  </si>
+  <si>
+    <t>yoonbin0304@naver.com</t>
+  </si>
+  <si>
+    <t>최윤빈</t>
+  </si>
+  <si>
+    <t>ddoyeong0509@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소영</t>
+  </si>
+  <si>
+    <t>minnjae119@gmail.com</t>
+  </si>
+  <si>
+    <t>최민재</t>
+  </si>
+  <si>
+    <t>smarthulk0318@naver.com</t>
+  </si>
+  <si>
+    <t>조성민</t>
+  </si>
+  <si>
+    <t>kmmyy209@gmail.com</t>
+  </si>
+  <si>
+    <t>김명은</t>
+  </si>
+  <si>
+    <t>kokoung12@naver.com</t>
+  </si>
+  <si>
+    <t>권호영</t>
+  </si>
+  <si>
+    <t>raon2812@naver.com</t>
+  </si>
+  <si>
+    <t>최라온</t>
+  </si>
+  <si>
+    <t>ujs4198@naver.com</t>
+  </si>
+  <si>
+    <t>엄준식</t>
+  </si>
+  <si>
+    <t>lucas3767@naver.com</t>
+  </si>
+  <si>
+    <t>권민재</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1713,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1247,13 +1724,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1261,13 +1738,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1384,7 +1861,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N132" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N207" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -7004,43 +7481,3118 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="13">
+      <c r="A132" s="10">
         <v>45602.640377800926</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C132" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="D132" s="14">
+      <c r="D132" s="11">
         <v>2.0246206E7</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="E132" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="F132" s="14" t="s">
+      <c r="F132" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G132" s="14" t="s">
+      <c r="G132" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H132" s="14" t="s">
+      <c r="H132" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I132" s="14" t="s">
+      <c r="I132" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J132" s="14" t="s">
+      <c r="J132" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K132" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L132" s="14" t="s">
+      <c r="K132" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L132" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N132" s="15" t="s">
+      <c r="N132" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="7">
+        <v>45602.67575037037</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D133" s="8">
+        <v>2.0212818E7</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N133" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="10">
+        <v>45602.74245881944</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D134" s="11">
+        <v>2.0243955E7</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K134" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L134" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N134" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="7">
+        <v>45602.74548916667</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D135" s="8">
+        <v>2.0194153E7</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J135" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K135" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L135" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N135" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="10">
+        <v>45602.747861412034</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D136" s="11">
+        <v>2.0233637E7</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L136" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M136" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="7">
+        <v>45602.754708333334</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="8">
+        <v>2.0192616E7</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J137" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K137" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L137" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M137" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="10">
+        <v>45602.785375810185</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D138" s="11">
+        <v>2.0215158E7</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I138" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J138" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K138" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L138" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N138" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="7">
+        <v>45602.80193041667</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D139" s="8">
+        <v>2.0243917E7</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K139" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L139" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N139" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="10">
+        <v>45602.80623458333</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D140" s="11">
+        <v>2.0242201E7</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L140" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N140" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7">
+        <v>45602.876631493054</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D141" s="8">
+        <v>2.0246235E7</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K141" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M141" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="10">
+        <v>45602.925841979166</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D142" s="11">
+        <v>2.0242347E7</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J142" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K142" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L142" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M142" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7">
+        <v>45602.980280937496</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D143" s="8">
+        <v>2.0214143E7</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K143" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L143" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N143" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="10">
+        <v>45602.98217890046</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="11">
+        <v>2.0212609E7</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K144" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L144" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M144" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="7">
+        <v>45602.990527835645</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D145" s="8">
+        <v>2.024385E7</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K145" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L145" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M145" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="10">
+        <v>45602.99104898148</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" s="11">
+        <v>2.0243938E7</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I146" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K146" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L146" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N146" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="7">
+        <v>45603.017897847225</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D147" s="8">
+        <v>2.0243905E7</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J147" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K147" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L147" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M147" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="10">
+        <v>45603.04878833333</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" s="11">
+        <v>2.0243959E7</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K148" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L148" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N148" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="7">
+        <v>45603.45267734954</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D149" s="8">
+        <v>2.0246233E7</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K149" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L149" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M149" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="10">
+        <v>45603.47687804398</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D150" s="11">
+        <v>2.0213224E7</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I150" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J150" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K150" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L150" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M150" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="7">
+        <v>45603.51935001157</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D151" s="8">
+        <v>2.0193633E7</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J151" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K151" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L151" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N151" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="10">
+        <v>45603.521766550926</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="11">
+        <v>2.0232637E7</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J152" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K152" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L152" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M152" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="7">
+        <v>45603.59314626157</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="8">
+        <v>2.0222606E7</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H153" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I153" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J153" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K153" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L153" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M153" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="10">
+        <v>45603.60300204861</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D154" s="11">
+        <v>2.0207065E7</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I154" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J154" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K154" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L154" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M154" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="7">
+        <v>45603.61463003472</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D155" s="8">
+        <v>2.0222367E7</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H155" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K155" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L155" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N155" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="10">
+        <v>45603.61623759259</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D156" s="11">
+        <v>2.0242724E7</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I156" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J156" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K156" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L156" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M156" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="7">
+        <v>45603.617535983794</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D157" s="8">
+        <v>2.0242736E7</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I157" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J157" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K157" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L157" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N157" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="10">
+        <v>45603.631426168984</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D158" s="11">
+        <v>2.0242582E7</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I158" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K158" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L158" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M158" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="7">
+        <v>45603.63165355324</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D159" s="8">
+        <v>2.0232745E7</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J159" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K159" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L159" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N159" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="10">
+        <v>45603.640168252314</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D160" s="11">
+        <v>2.0227106E7</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I160" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J160" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K160" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L160" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N160" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="7">
+        <v>45603.66456996527</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D161" s="8">
+        <v>2.0241065E7</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H161" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J161" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K161" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L161" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N161" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="10">
+        <v>45603.72555986111</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D162" s="11">
+        <v>2.0233408E7</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J162" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K162" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L162" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N162" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="7">
+        <v>45603.732716087965</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D163" s="8">
+        <v>2.0242122E7</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H163" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I163" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J163" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K163" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L163" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N163" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="10">
+        <v>45603.732930729166</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D164" s="11">
+        <v>2.0213064E7</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J164" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K164" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L164" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M164" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="7">
+        <v>45603.746182372684</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D165" s="8">
+        <v>2.0243414E7</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J165" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K165" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L165" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N165" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="10">
+        <v>45603.776673472225</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D166" s="11">
+        <v>2.0217035E7</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J166" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K166" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L166" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M166" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="7">
+        <v>45603.78057188657</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D167" s="8">
+        <v>2.0246639E7</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H167" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K167" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L167" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N167" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="10">
+        <v>45603.800694143516</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D168" s="11">
+        <v>2.0243804E7</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J168" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K168" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L168" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N168" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="7">
+        <v>45603.81631921296</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D169" s="8">
+        <v>2.024243E7</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I169" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J169" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K169" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L169" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M169" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="10">
+        <v>45603.82530859954</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D170" s="11">
+        <v>2.0242227E7</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I170" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J170" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K170" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L170" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M170" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="7">
+        <v>45603.83604630787</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D171" s="8">
+        <v>2.0242707E7</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H171" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J171" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K171" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L171" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M171" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="10">
+        <v>45603.89749109954</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="D172" s="11">
+        <v>2.0205165E7</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H172" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I172" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J172" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K172" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L172" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N172" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="7">
+        <v>45603.897809525464</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D173" s="8">
+        <v>2.0242363E7</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H173" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J173" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K173" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L173" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M173" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="10">
+        <v>45603.90395581019</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D174" s="11">
+        <v>2.0246204E7</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I174" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J174" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K174" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L174" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M174" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="7">
+        <v>45603.91969164352</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D175" s="8">
+        <v>2.0227093E7</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I175" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J175" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K175" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L175" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M175" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="10">
+        <v>45603.95869299769</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D176" s="11">
+        <v>2.0193844E7</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H176" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I176" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J176" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K176" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L176" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M176" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="7">
+        <v>45604.00849767361</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D177" s="8">
+        <v>2.023411E7</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I177" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J177" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K177" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L177" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M177" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="10">
+        <v>45604.04786436343</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D178" s="11">
+        <v>2.0246303E7</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I178" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J178" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K178" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L178" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N178" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="7">
+        <v>45604.083190729165</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D179" s="8">
+        <v>2.0225223E7</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I179" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J179" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K179" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L179" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N179" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="10">
+        <v>45604.08881648148</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D180" s="11">
+        <v>2.0205226E7</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H180" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I180" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J180" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K180" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L180" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N180" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="7">
+        <v>45604.406107372684</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D181" s="8">
+        <v>2.024383E7</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H181" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I181" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J181" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K181" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L181" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M181" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="10">
+        <v>45604.45459796296</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D182" s="11">
+        <v>2.0235179E7</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G182" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H182" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I182" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J182" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K182" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L182" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M182" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="7">
+        <v>45604.45850469907</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D183" s="8">
+        <v>2.0215144E7</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I183" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J183" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K183" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L183" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M183" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="10">
+        <v>45604.47879365741</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="D184" s="11">
+        <v>2.0213219E7</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H184" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I184" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J184" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K184" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L184" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M184" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="7">
+        <v>45604.491107141206</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D185" s="8">
+        <v>2.0242515E7</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I185" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J185" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K185" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L185" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M185" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="10">
+        <v>45604.553360833335</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D186" s="11">
+        <v>2.0212971E7</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G186" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H186" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I186" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J186" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K186" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L186" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M186" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="7">
+        <v>45604.56479849537</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D187" s="8">
+        <v>2.0241207E7</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I187" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J187" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K187" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L187" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M187" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="10">
+        <v>45604.57158012732</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D188" s="11">
+        <v>2.0227157E7</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G188" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H188" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I188" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J188" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K188" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L188" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N188" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="7">
+        <v>45604.59581150463</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D189" s="8">
+        <v>2.0246904E7</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I189" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J189" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K189" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L189" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M189" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="10">
+        <v>45604.615768414355</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D190" s="11">
+        <v>2.0202415E7</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="F190" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G190" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H190" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I190" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J190" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K190" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L190" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N190" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="7">
+        <v>45604.62028778935</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D191" s="8">
+        <v>2.024523E7</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I191" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J191" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K191" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L191" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M191" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="10">
+        <v>45604.62151784722</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D192" s="11">
+        <v>2.0222933E7</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="F192" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G192" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H192" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I192" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J192" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K192" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L192" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N192" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="7">
+        <v>45604.644264664355</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D193" s="8">
+        <v>2.0243236E7</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H193" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I193" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J193" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K193" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L193" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N193" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="10">
+        <v>45604.65076766204</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D194" s="11">
+        <v>2.0242732E7</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="F194" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G194" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H194" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I194" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J194" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K194" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L194" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N194" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="7">
+        <v>45604.66421394676</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D195" s="8">
+        <v>2.0192366E7</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I195" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J195" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K195" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L195" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M195" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="10">
+        <v>45604.669270706014</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D196" s="11">
+        <v>2.0241204E7</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F196" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G196" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H196" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I196" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J196" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K196" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L196" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N196" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="7">
+        <v>45604.683183333334</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D197" s="8">
+        <v>2.0233031E7</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I197" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J197" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K197" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L197" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N197" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="10">
+        <v>45604.71146579861</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D198" s="11">
+        <v>2.0245186E7</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G198" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H198" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I198" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J198" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K198" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L198" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N198" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="7">
+        <v>45604.71804476852</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D199" s="8">
+        <v>2.0242138E7</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H199" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I199" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J199" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K199" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L199" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M199" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="10">
+        <v>45604.71902675926</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D200" s="11">
+        <v>2.0242424E7</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="F200" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G200" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H200" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I200" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J200" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K200" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L200" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M200" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="7">
+        <v>45604.725225891205</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D201" s="8">
+        <v>2.0243257E7</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H201" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I201" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J201" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K201" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L201" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N201" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="10">
+        <v>45604.73025371528</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D202" s="11">
+        <v>2.0241095E7</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="F202" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G202" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H202" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I202" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J202" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K202" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L202" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N202" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="7">
+        <v>45604.732553194444</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D203" s="8">
+        <v>2.0231602E7</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I203" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J203" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K203" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L203" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N203" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="10">
+        <v>45604.7367394676</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D204" s="11">
+        <v>2.0202911E7</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F204" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G204" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H204" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I204" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J204" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K204" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L204" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M204" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="7">
+        <v>45604.74498403935</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D205" s="8">
+        <v>2.0242751E7</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G205" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H205" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I205" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J205" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K205" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L205" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M205" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="10">
+        <v>45604.75583388889</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D206" s="11">
+        <v>2.0197118E7</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="F206" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G206" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H206" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I206" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J206" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K206" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L206" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N206" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="13">
+        <v>45604.77944534722</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="C207" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D207" s="14">
+        <v>2.0242702E7</v>
+      </c>
+      <c r="E207" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="F207" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G207" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H207" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I207" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J207" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K207" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L207" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N207" s="15" t="s">
         <v>33</v>
       </c>
     </row>

--- a/R/data/quiz241104_tmp.xlsx
+++ b/R/data/quiz241104_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="543">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1550,6 +1550,96 @@
   </si>
   <si>
     <t>권민재</t>
+  </si>
+  <si>
+    <t>youmakein@gmail.com</t>
+  </si>
+  <si>
+    <t>syckjjperfect9160@naver.com</t>
+  </si>
+  <si>
+    <t>송현우</t>
+  </si>
+  <si>
+    <t>baeksa01@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>서휘도</t>
+  </si>
+  <si>
+    <t>ggamy3637@naver.com</t>
+  </si>
+  <si>
+    <t>최효윤</t>
+  </si>
+  <si>
+    <t>sihyune1104@gmail.com</t>
+  </si>
+  <si>
+    <t>안시현</t>
+  </si>
+  <si>
+    <t>sunkeun.han@gmail.com</t>
+  </si>
+  <si>
+    <t>한선근</t>
+  </si>
+  <si>
+    <t>lion5166@naver.com</t>
+  </si>
+  <si>
+    <t>김정연</t>
+  </si>
+  <si>
+    <t>ji040414@naver.com</t>
+  </si>
+  <si>
+    <t>최윤지</t>
+  </si>
+  <si>
+    <t>tjdehs4809@naver.com</t>
+  </si>
+  <si>
+    <t>최성돈</t>
+  </si>
+  <si>
+    <t>cheun0423@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터과</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>obbobb7@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>구재영</t>
+  </si>
+  <si>
+    <t>joo061222@gmail.com</t>
+  </si>
+  <si>
+    <t>강민주</t>
+  </si>
+  <si>
+    <t>rlaskrud0917@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학전공</t>
+  </si>
+  <si>
+    <t>김나경</t>
+  </si>
+  <si>
+    <t>ysh050116@naver.com</t>
+  </si>
+  <si>
+    <t>윤시한</t>
   </si>
 </sst>
 </file>
@@ -1861,7 +1951,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N207" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N221" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -10556,43 +10646,617 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="13">
+      <c r="A207" s="7">
         <v>45604.77944534722</v>
       </c>
-      <c r="B207" s="14" t="s">
+      <c r="B207" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="C207" s="14" t="s">
+      <c r="C207" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D207" s="14">
+      <c r="D207" s="8">
         <v>2.0242702E7</v>
       </c>
-      <c r="E207" s="14" t="s">
+      <c r="E207" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="F207" s="14" t="s">
+      <c r="F207" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G207" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H207" s="14" t="s">
+      <c r="G207" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H207" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I207" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J207" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K207" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L207" s="14" t="s">
+      <c r="I207" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J207" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K207" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L207" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N207" s="15" t="s">
+      <c r="N207" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="10">
+        <v>45604.80291488426</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D208" s="11">
+        <v>2.0241106E7</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F208" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G208" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H208" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I208" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J208" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K208" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L208" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N208" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="7">
+        <v>45604.80376995371</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D209" s="8">
+        <v>2.0202335E7</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G209" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H209" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I209" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J209" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K209" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L209" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M209" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="10">
+        <v>45604.80732253472</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D210" s="11">
+        <v>2.0205188E7</v>
+      </c>
+      <c r="E210" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F210" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G210" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H210" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I210" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J210" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K210" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L210" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M210" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="7">
+        <v>45604.809773402776</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D211" s="8">
+        <v>2.0201733E7</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G211" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H211" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I211" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J211" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K211" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L211" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N211" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="10">
+        <v>45604.91943388889</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D212" s="11">
+        <v>2.0232726E7</v>
+      </c>
+      <c r="E212" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="F212" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G212" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H212" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I212" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J212" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K212" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L212" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M212" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="7">
+        <v>45604.922829930554</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D213" s="8">
+        <v>2.0213644E7</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H213" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I213" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J213" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K213" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L213" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N213" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="10">
+        <v>45604.93691207176</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D214" s="11">
+        <v>2.0243612E7</v>
+      </c>
+      <c r="E214" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="F214" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G214" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H214" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I214" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J214" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K214" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L214" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M214" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="7">
+        <v>45604.96020880787</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D215" s="8">
+        <v>2.0233055E7</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="F215" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H215" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I215" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J215" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K215" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L215" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M215" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="10">
+        <v>45604.96321540509</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D216" s="11">
+        <v>2.0201103E7</v>
+      </c>
+      <c r="E216" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="F216" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G216" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H216" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I216" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J216" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K216" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L216" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N216" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="7">
+        <v>45604.990958159724</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D217" s="8">
+        <v>2.0217152E7</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="F217" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G217" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H217" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I217" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J217" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K217" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L217" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N217" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="10">
+        <v>45605.007764849535</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D218" s="11">
+        <v>2.0193305E7</v>
+      </c>
+      <c r="E218" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="F218" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G218" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H218" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I218" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J218" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K218" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L218" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N218" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="7">
+        <v>45605.01606879629</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D219" s="8">
+        <v>2.0243801E7</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I219" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J219" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K219" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L219" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M219" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="10">
+        <v>45605.12449417824</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="D220" s="11">
+        <v>2.0221005E7</v>
+      </c>
+      <c r="E220" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="F220" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G220" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H220" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I220" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J220" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K220" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L220" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N220" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="13">
+        <v>45605.173381562505</v>
+      </c>
+      <c r="B221" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C221" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D221" s="14">
+        <v>2.0246752E7</v>
+      </c>
+      <c r="E221" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="F221" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G221" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H221" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I221" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J221" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K221" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L221" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N221" s="15" t="s">
         <v>33</v>
       </c>
     </row>

--- a/R/data/quiz241104_tmp.xlsx
+++ b/R/data/quiz241104_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="600">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1640,6 +1640,177 @@
   </si>
   <si>
     <t>윤시한</t>
+  </si>
+  <si>
+    <t>mmin121420@naver.com</t>
+  </si>
+  <si>
+    <t>김승민</t>
+  </si>
+  <si>
+    <t>ytkay05@gmail.com</t>
+  </si>
+  <si>
+    <t>김영민</t>
+  </si>
+  <si>
+    <t>jyc6212@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지학전공</t>
+  </si>
+  <si>
+    <t>정윤채</t>
+  </si>
+  <si>
+    <t>csm06125@naver.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이</t>
+  </si>
+  <si>
+    <t>박근태</t>
+  </si>
+  <si>
+    <t>bevery2685@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반도체 디스플레이 스쿨 </t>
+  </si>
+  <si>
+    <t>조영태</t>
+  </si>
+  <si>
+    <t>zmgofk1591@gmail.com</t>
+  </si>
+  <si>
+    <t>AI로봇융합</t>
+  </si>
+  <si>
+    <t>박하늘</t>
+  </si>
+  <si>
+    <t>towp7563@gmail.com</t>
+  </si>
+  <si>
+    <t>오승현</t>
+  </si>
+  <si>
+    <t>wooyoomilk@naver.com</t>
+  </si>
+  <si>
+    <t>우연준</t>
+  </si>
+  <si>
+    <t>dmtn0001@naver.com</t>
+  </si>
+  <si>
+    <t>김의수</t>
+  </si>
+  <si>
+    <t>sshee718@gmail.com</t>
+  </si>
+  <si>
+    <t>권도운</t>
+  </si>
+  <si>
+    <t>sunshade132@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">디지털미디어콘텐츠 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">박기택 </t>
+  </si>
+  <si>
+    <t>opkl52@naver.com</t>
+  </si>
+  <si>
+    <t>유승미</t>
+  </si>
+  <si>
+    <t>mjys9155@gmail.com</t>
+  </si>
+  <si>
+    <t>dawn2368@gmail.com</t>
+  </si>
+  <si>
+    <t>허다운</t>
+  </si>
+  <si>
+    <t>chorok052150@naver.com</t>
+  </si>
+  <si>
+    <t>김미니</t>
+  </si>
+  <si>
+    <t>mt1661@naver.com</t>
+  </si>
+  <si>
+    <t>콘탠츠IT</t>
+  </si>
+  <si>
+    <t>정성민</t>
+  </si>
+  <si>
+    <t>hwo0933@gmail.com</t>
+  </si>
+  <si>
+    <t>융합관광경영전공</t>
+  </si>
+  <si>
+    <t>양현우</t>
+  </si>
+  <si>
+    <t>tjdrjs04@naver.com</t>
+  </si>
+  <si>
+    <t>장성건</t>
+  </si>
+  <si>
+    <t>yumi0901gami@gmail.com</t>
+  </si>
+  <si>
+    <t>gangjunu@naver.com</t>
+  </si>
+  <si>
+    <t>강준우</t>
+  </si>
+  <si>
+    <t>ahrang1225@gmail.com</t>
+  </si>
+  <si>
+    <t>탁아랑</t>
+  </si>
+  <si>
+    <t>wjsgkdms4@naver.com</t>
+  </si>
+  <si>
+    <t>전하은</t>
+  </si>
+  <si>
+    <t>hanyeong09@naver.com</t>
+  </si>
+  <si>
+    <t>이한영</t>
+  </si>
+  <si>
+    <t>mjjb1102@gmail.com</t>
+  </si>
+  <si>
+    <t>이민재</t>
+  </si>
+  <si>
+    <t>qaz5316qaz@naver.com</t>
+  </si>
+  <si>
+    <t>이동기</t>
+  </si>
+  <si>
+    <t>haeunlife@naver.com</t>
+  </si>
+  <si>
+    <t>오하은</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +2122,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N221" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N247" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -11220,44 +11391,1110 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="13">
+      <c r="A221" s="7">
         <v>45605.173381562505</v>
       </c>
-      <c r="B221" s="14" t="s">
+      <c r="B221" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="C221" s="14" t="s">
+      <c r="C221" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="D221" s="14">
+      <c r="D221" s="8">
         <v>2.0246752E7</v>
       </c>
-      <c r="E221" s="14" t="s">
+      <c r="E221" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="F221" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G221" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H221" s="14" t="s">
+      <c r="F221" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G221" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H221" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I221" s="14" t="s">
+      <c r="I221" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J221" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K221" s="14" t="s">
+      <c r="J221" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K221" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L221" s="14" t="s">
+      <c r="L221" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N221" s="15" t="s">
+      <c r="N221" s="9" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="10">
+        <v>45605.48865505787</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D222" s="11">
+        <v>2.024411E7</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="F222" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G222" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H222" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I222" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J222" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K222" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L222" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M222" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="7">
+        <v>45605.50750936342</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D223" s="8">
+        <v>2.0243214E7</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H223" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I223" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J223" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K223" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L223" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M223" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="10">
+        <v>45605.51216707176</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="D224" s="11">
+        <v>2.0232361E7</v>
+      </c>
+      <c r="E224" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="F224" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G224" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H224" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I224" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J224" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K224" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L224" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N224" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="7">
+        <v>45605.58882193287</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="D225" s="8">
+        <v>2.0203312E7</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F225" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H225" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I225" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J225" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K225" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L225" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N225" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="10">
+        <v>45605.604516875</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="D226" s="11">
+        <v>2.0243354E7</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="F226" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G226" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H226" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I226" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J226" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K226" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L226" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N226" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="7">
+        <v>45605.61101434028</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="D227" s="8">
+        <v>2.0216731E7</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F227" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H227" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I227" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J227" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K227" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L227" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M227" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="10">
+        <v>45605.623265358794</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D228" s="11">
+        <v>2.0243826E7</v>
+      </c>
+      <c r="E228" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="F228" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G228" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H228" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I228" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J228" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K228" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L228" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N228" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="7">
+        <v>45605.642592222226</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D229" s="8">
+        <v>2.0242988E7</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G229" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H229" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I229" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J229" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K229" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L229" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M229" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="10">
+        <v>45605.65862158565</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D230" s="11">
+        <v>2.0212927E7</v>
+      </c>
+      <c r="E230" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="F230" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G230" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H230" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I230" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J230" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K230" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L230" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M230" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="7">
+        <v>45605.68616482639</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D231" s="8">
+        <v>2.0243702E7</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="F231" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H231" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I231" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J231" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K231" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L231" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N231" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="10">
+        <v>45605.689316689815</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="D232" s="11">
+        <v>2.0222526E7</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="F232" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G232" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H232" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I232" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J232" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K232" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L232" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M232" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="7">
+        <v>45605.691333124996</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D233" s="8">
+        <v>2.0202994E7</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="F233" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H233" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I233" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J233" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K233" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L233" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M233" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="10">
+        <v>45605.70702524306</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D234" s="11">
+        <v>2.0241044E7</v>
+      </c>
+      <c r="E234" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F234" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G234" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H234" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I234" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J234" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K234" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L234" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N234" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="7">
+        <v>45605.72361623842</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D235" s="8">
+        <v>2.0197126E7</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="F235" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G235" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H235" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I235" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J235" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K235" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L235" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M235" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="10">
+        <v>45605.723867824076</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D236" s="11">
+        <v>2.0242307E7</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="F236" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G236" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H236" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I236" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J236" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K236" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L236" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N236" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="7">
+        <v>45605.749532222224</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D237" s="8">
+        <v>2.0215239E7</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="F237" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G237" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H237" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I237" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J237" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K237" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L237" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N237" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="10">
+        <v>45605.77298444444</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="D238" s="11">
+        <v>2.0236627E7</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="F238" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G238" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H238" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I238" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J238" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K238" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L238" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M238" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="7">
+        <v>45605.82561856481</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D239" s="8">
+        <v>2.0235248E7</v>
+      </c>
+      <c r="E239" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F239" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G239" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H239" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I239" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J239" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K239" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L239" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M239" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="10">
+        <v>45605.828351296295</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D240" s="11">
+        <v>2.0241515E7</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G240" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H240" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I240" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J240" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K240" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L240" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N240" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="7">
+        <v>45605.851577719906</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D241" s="8">
+        <v>2.0242901E7</v>
+      </c>
+      <c r="E241" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="F241" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H241" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I241" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J241" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K241" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L241" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M241" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="10">
+        <v>45605.85442201389</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D242" s="11">
+        <v>2.024224E7</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="F242" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G242" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H242" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I242" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J242" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K242" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L242" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M242" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="7">
+        <v>45605.856648796296</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D243" s="8">
+        <v>2.020257E7</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="F243" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G243" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H243" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I243" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J243" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K243" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L243" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N243" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="10">
+        <v>45605.86282171296</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D244" s="11">
+        <v>2.0203423E7</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="F244" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G244" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H244" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I244" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J244" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K244" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L244" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M244" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="7">
+        <v>45605.86582850694</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D245" s="8">
+        <v>2.0206628E7</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G245" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H245" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I245" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J245" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K245" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L245" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N245" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="10">
+        <v>45605.87164732639</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D246" s="11">
+        <v>2.0192936E7</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="F246" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G246" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H246" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I246" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J246" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K246" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L246" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M246" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="13">
+        <v>45605.87205484953</v>
+      </c>
+      <c r="B247" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="C247" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D247" s="14">
+        <v>2.0242624E7</v>
+      </c>
+      <c r="E247" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="F247" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G247" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H247" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I247" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J247" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K247" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L247" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N247" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241104_tmp.xlsx
+++ b/R/data/quiz241104_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="623">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1811,6 +1811,75 @@
   </si>
   <si>
     <t>오하은</t>
+  </si>
+  <si>
+    <t>abcchocoo111@gmail.com</t>
+  </si>
+  <si>
+    <t>김기원</t>
+  </si>
+  <si>
+    <t>1kdcf@naver.com</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>akeb110@naver.com</t>
+  </si>
+  <si>
+    <t>김은빈</t>
+  </si>
+  <si>
+    <t>ran0753@gmail.com</t>
+  </si>
+  <si>
+    <t>바이오메디컬</t>
+  </si>
+  <si>
+    <t>김태란</t>
+  </si>
+  <si>
+    <t>loollypoolly@naver.com</t>
+  </si>
+  <si>
+    <t>김수정</t>
+  </si>
+  <si>
+    <t>jym85362@naver.com</t>
+  </si>
+  <si>
+    <t>유수현</t>
+  </si>
+  <si>
+    <t>ataraxia050508@naver.com</t>
+  </si>
+  <si>
+    <t>박정호</t>
+  </si>
+  <si>
+    <t>awinni@naver.com</t>
+  </si>
+  <si>
+    <t>우현진</t>
+  </si>
+  <si>
+    <t>jennydz@naver.com</t>
+  </si>
+  <si>
+    <t>허지수</t>
+  </si>
+  <si>
+    <t>xogns3043@naver.com</t>
+  </si>
+  <si>
+    <t>김태훈</t>
+  </si>
+  <si>
+    <t>whrhdwn2003@gmail.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
   </si>
 </sst>
 </file>
@@ -1974,10 +2043,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1985,13 +2054,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1999,13 +2068,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2122,7 +2191,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N247" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N258" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -12457,43 +12526,494 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="13">
+      <c r="A247" s="7">
         <v>45605.87205484953</v>
       </c>
-      <c r="B247" s="14" t="s">
+      <c r="B247" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C247" s="14" t="s">
+      <c r="C247" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D247" s="14">
+      <c r="D247" s="8">
         <v>2.0242624E7</v>
       </c>
-      <c r="E247" s="14" t="s">
+      <c r="E247" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="F247" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G247" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H247" s="14" t="s">
+      <c r="F247" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H247" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I247" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J247" s="14" t="s">
+      <c r="I247" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J247" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K247" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L247" s="14" t="s">
+      <c r="K247" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L247" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N247" s="15" t="s">
+      <c r="N247" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="10">
+        <v>45605.916537337966</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="C248" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D248" s="11">
+        <v>2.0243206E7</v>
+      </c>
+      <c r="E248" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="F248" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G248" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H248" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I248" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J248" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K248" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L248" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M248" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="7">
+        <v>45605.91938435185</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D249" s="8">
+        <v>2.0192901E7</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="F249" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H249" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I249" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J249" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K249" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L249" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M249" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="10">
+        <v>45605.9304325</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D250" s="11">
+        <v>2.0231708E7</v>
+      </c>
+      <c r="E250" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="F250" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G250" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H250" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I250" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J250" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K250" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L250" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M250" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="7">
+        <v>45605.939465393516</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D251" s="8">
+        <v>2.0243615E7</v>
+      </c>
+      <c r="E251" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="F251" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G251" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H251" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I251" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J251" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K251" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L251" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N251" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="10">
+        <v>45605.95553491898</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D252" s="11">
+        <v>2.0243609E7</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G252" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H252" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I252" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J252" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K252" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L252" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M252" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="7">
+        <v>45605.96838077546</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D253" s="8">
+        <v>2.0243234E7</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G253" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H253" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I253" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J253" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K253" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L253" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M253" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="10">
+        <v>45605.97041902778</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="C254" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D254" s="11">
+        <v>2.0242118E7</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G254" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H254" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I254" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J254" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K254" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L254" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N254" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="7">
+        <v>45605.97377974537</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D255" s="8">
+        <v>2.0245207E7</v>
+      </c>
+      <c r="E255" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="F255" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G255" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H255" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I255" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J255" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K255" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L255" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M255" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="10">
+        <v>45605.98452783565</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D256" s="11">
+        <v>2.0213543E7</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="F256" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G256" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H256" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I256" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J256" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K256" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L256" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N256" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="7">
+        <v>45605.99655487269</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D257" s="8">
+        <v>2.022704E7</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="F257" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G257" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H257" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I257" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J257" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K257" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L257" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M257" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="13">
+        <v>45606.002332986114</v>
+      </c>
+      <c r="B258" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="C258" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D258" s="14">
+        <v>2.023275E7</v>
+      </c>
+      <c r="E258" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="F258" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G258" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H258" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I258" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J258" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K258" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L258" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N258" s="15" t="s">
         <v>67</v>
       </c>
     </row>

--- a/R/data/quiz241104_tmp.xlsx
+++ b/R/data/quiz241104_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="642">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1880,6 +1880,63 @@
   </si>
   <si>
     <t>조은서</t>
+  </si>
+  <si>
+    <t>ksy91637@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>김성열</t>
+  </si>
+  <si>
+    <t>alsco92001@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>오민채</t>
+  </si>
+  <si>
+    <t>snp040609@naver.com</t>
+  </si>
+  <si>
+    <t>박세나</t>
+  </si>
+  <si>
+    <t>youngold057@gmail.com</t>
+  </si>
+  <si>
+    <t>윤태영</t>
+  </si>
+  <si>
+    <t>shinsohee0713@naver.com</t>
+  </si>
+  <si>
+    <t>신소희</t>
+  </si>
+  <si>
+    <t>jdragon0151@gmail.com</t>
+  </si>
+  <si>
+    <t>신준용</t>
+  </si>
+  <si>
+    <t>yxnjxn0331@gmail.com</t>
+  </si>
+  <si>
+    <t>배윤진</t>
+  </si>
+  <si>
+    <t>ms071207@naver.com</t>
+  </si>
+  <si>
+    <t>chjames2005@naver.com</t>
+  </si>
+  <si>
+    <t>최재현</t>
   </si>
 </sst>
 </file>
@@ -2043,10 +2100,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2054,13 +2111,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2068,13 +2125,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2191,7 +2248,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N258" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N267" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -12977,43 +13034,412 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="13">
+      <c r="A258" s="10">
         <v>45606.002332986114</v>
       </c>
-      <c r="B258" s="14" t="s">
+      <c r="B258" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="C258" s="14" t="s">
+      <c r="C258" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D258" s="14">
+      <c r="D258" s="11">
         <v>2.023275E7</v>
       </c>
-      <c r="E258" s="14" t="s">
+      <c r="E258" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="F258" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G258" s="14" t="s">
+      <c r="F258" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G258" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H258" s="14" t="s">
+      <c r="H258" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I258" s="14" t="s">
+      <c r="I258" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J258" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K258" s="14" t="s">
+      <c r="J258" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K258" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L258" s="14" t="s">
+      <c r="L258" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N258" s="15" t="s">
+      <c r="N258" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="7">
+        <v>45606.02871142361</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="D259" s="8">
+        <v>2.0205139E7</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="F259" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G259" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H259" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I259" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J259" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K259" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L259" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N259" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="10">
+        <v>45606.03689965278</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="D260" s="11">
+        <v>2.0245201E7</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="F260" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G260" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H260" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I260" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J260" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K260" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L260" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N260" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="7">
+        <v>45606.03753347222</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D261" s="8">
+        <v>2.0242957E7</v>
+      </c>
+      <c r="E261" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G261" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H261" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I261" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J261" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K261" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L261" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N261" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="10">
+        <v>45606.04559188658</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D262" s="11">
+        <v>2.0242336E7</v>
+      </c>
+      <c r="E262" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="F262" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G262" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H262" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I262" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J262" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K262" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L262" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M262" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="7">
+        <v>45606.04851280093</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D263" s="8">
+        <v>2.0235198E7</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="F263" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G263" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H263" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I263" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J263" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K263" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L263" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M263" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="10">
+        <v>45606.05281724537</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D264" s="11">
+        <v>2.0205195E7</v>
+      </c>
+      <c r="E264" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="F264" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G264" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H264" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I264" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J264" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K264" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L264" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N264" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="7">
+        <v>45606.08720809028</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D265" s="8">
+        <v>2.0217015E7</v>
+      </c>
+      <c r="E265" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="F265" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G265" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H265" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I265" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J265" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K265" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L265" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M265" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="10">
+        <v>45606.091247442135</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="D266" s="11">
+        <v>2.0193644E7</v>
+      </c>
+      <c r="E266" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="F266" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G266" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H266" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I266" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J266" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K266" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L266" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M266" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="13">
+        <v>45606.13885077546</v>
+      </c>
+      <c r="B267" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="C267" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D267" s="14">
+        <v>2.0243259E7</v>
+      </c>
+      <c r="E267" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="F267" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G267" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H267" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I267" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J267" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K267" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L267" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N267" s="15" t="s">
         <v>67</v>
       </c>
     </row>

--- a/R/data/quiz241104_tmp.xlsx
+++ b/R/data/quiz241104_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="694">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1937,6 +1937,162 @@
   </si>
   <si>
     <t>최재현</t>
+  </si>
+  <si>
+    <t>cgim2421@gmail.com</t>
+  </si>
+  <si>
+    <t>김채윤</t>
+  </si>
+  <si>
+    <t>ansk999@gmail.com</t>
+  </si>
+  <si>
+    <t>위수현</t>
+  </si>
+  <si>
+    <t>ilylive999@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>kmhhth5@gmail.com</t>
+  </si>
+  <si>
+    <t>최진호</t>
+  </si>
+  <si>
+    <t>dlaehdghks123@gmail.com</t>
+  </si>
+  <si>
+    <t>임동환</t>
+  </si>
+  <si>
+    <t>eojeongmin146@gmail.com</t>
+  </si>
+  <si>
+    <t>어정민</t>
+  </si>
+  <si>
+    <t>hhr0408@gmail.com</t>
+  </si>
+  <si>
+    <t>한혜령</t>
+  </si>
+  <si>
+    <t>kbi70722@gmail.com</t>
+  </si>
+  <si>
+    <t>김병일</t>
+  </si>
+  <si>
+    <t>ye1651@naver.com</t>
+  </si>
+  <si>
+    <t>전예은</t>
+  </si>
+  <si>
+    <t>alyssa3257@naver.com</t>
+  </si>
+  <si>
+    <t>전영주</t>
+  </si>
+  <si>
+    <t>reasonbeans@naver.com</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>wlsqhwlsqh21@naver.com</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>심진보</t>
+  </si>
+  <si>
+    <t>houng5011@naver.com</t>
+  </si>
+  <si>
+    <t>홍성원</t>
+  </si>
+  <si>
+    <t>jyoon2233@naver.com</t>
+  </si>
+  <si>
+    <t>신정윤</t>
+  </si>
+  <si>
+    <t>jmju0711@naver.com</t>
+  </si>
+  <si>
+    <t>정민주</t>
+  </si>
+  <si>
+    <t>123plokml123@gmail.com</t>
+  </si>
+  <si>
+    <t>지현배</t>
+  </si>
+  <si>
+    <t>minchan6020@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김민찬 </t>
+  </si>
+  <si>
+    <t>leejhzzang2005@naver.com</t>
+  </si>
+  <si>
+    <t>이주현</t>
+  </si>
+  <si>
+    <t>namryumin@gmail.com</t>
+  </si>
+  <si>
+    <t>남류민</t>
+  </si>
+  <si>
+    <t>wlghd2352@naver.com</t>
+  </si>
+  <si>
+    <t>안지홍</t>
+  </si>
+  <si>
+    <t>obokboki@naver.com</t>
+  </si>
+  <si>
+    <t>최서윤</t>
+  </si>
+  <si>
+    <t>ncu11069@naver.com</t>
+  </si>
+  <si>
+    <t>이규민</t>
+  </si>
+  <si>
+    <t>hyeonjin0976@gmail.com</t>
+  </si>
+  <si>
+    <t>류현진</t>
+  </si>
+  <si>
+    <t>sangim041113@gmail.com</t>
+  </si>
+  <si>
+    <t>용상임</t>
+  </si>
+  <si>
+    <t>ryul1128@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">식품영양학과 </t>
+  </si>
+  <si>
+    <t>김률아</t>
   </si>
 </sst>
 </file>
@@ -1967,7 +2123,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -2100,10 +2256,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2111,27 +2267,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2141,7 +2283,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2185,9 +2327,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2248,7 +2387,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N267" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N292" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -13403,44 +13542,1069 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="13">
+      <c r="A267" s="7">
         <v>45606.13885077546</v>
       </c>
-      <c r="B267" s="14" t="s">
+      <c r="B267" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="C267" s="14" t="s">
+      <c r="C267" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D267" s="14">
+      <c r="D267" s="8">
         <v>2.0243259E7</v>
       </c>
-      <c r="E267" s="14" t="s">
+      <c r="E267" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="F267" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G267" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H267" s="14" t="s">
+      <c r="F267" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G267" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H267" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I267" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J267" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K267" s="14" t="s">
+      <c r="I267" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J267" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K267" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L267" s="14" t="s">
+      <c r="L267" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N267" s="15" t="s">
+      <c r="N267" s="9" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="10">
+        <v>45606.37174232639</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D268" s="11">
+        <v>2.0241517E7</v>
+      </c>
+      <c r="E268" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="F268" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G268" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H268" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I268" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J268" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K268" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L268" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M268" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="7">
+        <v>45606.43657965278</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D269" s="8">
+        <v>2.0202736E7</v>
+      </c>
+      <c r="E269" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="F269" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G269" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H269" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I269" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J269" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K269" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L269" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N269" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="10">
+        <v>45606.451007129624</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D270" s="11">
+        <v>2.0231621E7</v>
+      </c>
+      <c r="E270" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="F270" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G270" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H270" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I270" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J270" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K270" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L270" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M270" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="7">
+        <v>45606.46603625</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D271" s="8">
+        <v>2.024415E7</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="F271" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G271" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H271" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I271" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J271" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K271" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L271" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N271" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="10">
+        <v>45606.47009274305</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D272" s="11">
+        <v>2.0213533E7</v>
+      </c>
+      <c r="E272" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="F272" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G272" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H272" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I272" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J272" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K272" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L272" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N272" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="7">
+        <v>45606.480954479164</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D273" s="8">
+        <v>2.0242725E7</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="F273" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G273" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H273" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I273" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J273" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K273" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L273" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M273" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="10">
+        <v>45606.504885</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D274" s="11">
+        <v>2.0246648E7</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="F274" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G274" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H274" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I274" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J274" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K274" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L274" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M274" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="7">
+        <v>45606.52336565973</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D275" s="8">
+        <v>2.0191604E7</v>
+      </c>
+      <c r="E275" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="F275" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G275" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H275" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I275" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J275" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K275" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L275" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M275" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="10">
+        <v>45606.549459166665</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D276" s="11">
+        <v>2.0243949E7</v>
+      </c>
+      <c r="E276" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="F276" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G276" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H276" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I276" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J276" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K276" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L276" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N276" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="7">
+        <v>45606.560578530094</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D277" s="8">
+        <v>2.0246279E7</v>
+      </c>
+      <c r="E277" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="F277" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G277" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H277" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I277" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J277" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K277" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L277" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N277" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="10">
+        <v>45606.57113013889</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D278" s="11">
+        <v>2.0242339E7</v>
+      </c>
+      <c r="E278" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="F278" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G278" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H278" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I278" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J278" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K278" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L278" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M278" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="7">
+        <v>45606.57382984954</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D279" s="8">
+        <v>2.0242982E7</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="F279" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G279" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H279" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I279" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J279" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K279" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L279" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N279" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="10">
+        <v>45606.578174270835</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="C280" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D280" s="11">
+        <v>2.0243741E7</v>
+      </c>
+      <c r="E280" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="F280" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G280" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H280" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I280" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J280" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K280" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L280" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M280" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="7">
+        <v>45606.61646767361</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D281" s="8">
+        <v>2.024519E7</v>
+      </c>
+      <c r="E281" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="F281" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G281" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H281" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I281" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J281" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K281" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L281" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M281" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="10">
+        <v>45606.62637732639</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D282" s="11">
+        <v>2.0241088E7</v>
+      </c>
+      <c r="E282" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="F282" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G282" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H282" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I282" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J282" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K282" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L282" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N282" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="7">
+        <v>45606.62880106481</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D283" s="8">
+        <v>2.0245266E7</v>
+      </c>
+      <c r="E283" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="F283" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G283" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H283" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I283" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J283" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K283" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L283" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N283" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="10">
+        <v>45606.642934814816</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="C284" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D284" s="11">
+        <v>2.0242508E7</v>
+      </c>
+      <c r="E284" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="F284" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G284" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H284" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I284" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J284" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K284" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L284" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N284" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="7">
+        <v>45606.64522662037</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D285" s="8">
+        <v>2.0242342E7</v>
+      </c>
+      <c r="E285" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="F285" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G285" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H285" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I285" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J285" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K285" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L285" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M285" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="10">
+        <v>45606.65911659722</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="C286" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D286" s="11">
+        <v>2.0245154E7</v>
+      </c>
+      <c r="E286" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="F286" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G286" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H286" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I286" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J286" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K286" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L286" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M286" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="7">
+        <v>45606.6633359375</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D287" s="8">
+        <v>2.0202418E7</v>
+      </c>
+      <c r="E287" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="F287" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G287" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H287" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I287" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J287" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K287" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L287" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M287" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="10">
+        <v>45606.69627180556</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="C288" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D288" s="11">
+        <v>2.0241236E7</v>
+      </c>
+      <c r="E288" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="F288" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G288" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H288" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I288" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J288" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K288" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L288" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N288" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="7">
+        <v>45606.708701157404</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D289" s="8">
+        <v>2.0231622E7</v>
+      </c>
+      <c r="E289" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="F289" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G289" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H289" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I289" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J289" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K289" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L289" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M289" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="10">
+        <v>45606.71809780093</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="C290" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D290" s="11">
+        <v>2.0192717E7</v>
+      </c>
+      <c r="E290" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="F290" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G290" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H290" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I290" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J290" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K290" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L290" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N290" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="7">
+        <v>45606.72744509259</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D291" s="8">
+        <v>2.0235209E7</v>
+      </c>
+      <c r="E291" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="F291" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G291" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H291" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I291" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J291" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K291" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L291" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N291" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="13">
+        <v>45606.73635907407</v>
+      </c>
+      <c r="B292" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="C292" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="D292" s="14">
+        <v>2.0243806E7</v>
+      </c>
+      <c r="E292" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="F292" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G292" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H292" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I292" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J292" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K292" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L292" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M292" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241104_tmp.xlsx
+++ b/R/data/quiz241104_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="738">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2093,6 +2093,138 @@
   </si>
   <si>
     <t>김률아</t>
+  </si>
+  <si>
+    <t>qudcksl1216@gmail.com</t>
+  </si>
+  <si>
+    <t>윤병찬</t>
+  </si>
+  <si>
+    <t>ab47cd32@gmail.com</t>
+  </si>
+  <si>
+    <t>우로겸</t>
+  </si>
+  <si>
+    <t>swncelt@naver.com</t>
+  </si>
+  <si>
+    <t>박은서</t>
+  </si>
+  <si>
+    <t>sujdiamond@gmail.com</t>
+  </si>
+  <si>
+    <t>심유진</t>
+  </si>
+  <si>
+    <t>guj2205146@gmail.com</t>
+  </si>
+  <si>
+    <t>강의주</t>
+  </si>
+  <si>
+    <t>lucy37lucy37lucy37@naver.com</t>
+  </si>
+  <si>
+    <t>이은지</t>
+  </si>
+  <si>
+    <t>bom031417@naver.com</t>
+  </si>
+  <si>
+    <t>원유영</t>
+  </si>
+  <si>
+    <t>ekzkdi12@naver.com</t>
+  </si>
+  <si>
+    <t>박정민</t>
+  </si>
+  <si>
+    <t>dydwndus1115@naver.com</t>
+  </si>
+  <si>
+    <t>용주연</t>
+  </si>
+  <si>
+    <t>whovian2@naver.com</t>
+  </si>
+  <si>
+    <t>이새한</t>
+  </si>
+  <si>
+    <t>minsung5342@naver.com</t>
+  </si>
+  <si>
+    <t>yongwoo7701@gmail.com</t>
+  </si>
+  <si>
+    <t>유용우</t>
+  </si>
+  <si>
+    <t>dayae6762@naver.com</t>
+  </si>
+  <si>
+    <t>장다예</t>
+  </si>
+  <si>
+    <t>buj5195193@naver.com</t>
+  </si>
+  <si>
+    <t>백유진</t>
+  </si>
+  <si>
+    <t>seohyemin2003@naver.com</t>
+  </si>
+  <si>
+    <t>서혜민</t>
+  </si>
+  <si>
+    <t>kentoku0901@naver.com</t>
+  </si>
+  <si>
+    <t>김헌덕</t>
+  </si>
+  <si>
+    <t>qkfdmltls@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지과</t>
+  </si>
+  <si>
+    <t>조혜람</t>
+  </si>
+  <si>
+    <t>8428kyn@naver.com</t>
+  </si>
+  <si>
+    <t>김예나</t>
+  </si>
+  <si>
+    <t>leedug87@gmail.com</t>
+  </si>
+  <si>
+    <t>이두현</t>
+  </si>
+  <si>
+    <t>lyn392392@naver.com</t>
+  </si>
+  <si>
+    <t>이유나</t>
+  </si>
+  <si>
+    <t>eseses0827@naver.com</t>
+  </si>
+  <si>
+    <t>강은서</t>
+  </si>
+  <si>
+    <t>mire030503@gmail.com</t>
+  </si>
+  <si>
+    <t>김원형</t>
   </si>
 </sst>
 </file>
@@ -2387,7 +2519,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N292" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N314" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -14567,44 +14699,946 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="13">
+      <c r="A292" s="10">
         <v>45606.73635907407</v>
       </c>
-      <c r="B292" s="14" t="s">
+      <c r="B292" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C292" s="14" t="s">
+      <c r="C292" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="D292" s="14">
+      <c r="D292" s="11">
         <v>2.0243806E7</v>
       </c>
-      <c r="E292" s="14" t="s">
+      <c r="E292" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="F292" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G292" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H292" s="14" t="s">
+      <c r="F292" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G292" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H292" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I292" s="14" t="s">
+      <c r="I292" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J292" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K292" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L292" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M292" s="14" t="s">
+      <c r="J292" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K292" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L292" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M292" s="11" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="7">
+        <v>45606.75167961806</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D293" s="8">
+        <v>2.0192926E7</v>
+      </c>
+      <c r="E293" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="F293" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G293" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H293" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I293" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J293" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K293" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L293" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M293" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="10">
+        <v>45606.75436471065</v>
+      </c>
+      <c r="B294" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="C294" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D294" s="11">
+        <v>2.0242128E7</v>
+      </c>
+      <c r="E294" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="F294" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G294" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H294" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I294" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J294" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K294" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L294" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N294" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="7">
+        <v>45606.76522267361</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D295" s="8">
+        <v>2.0192876E7</v>
+      </c>
+      <c r="E295" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="F295" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G295" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H295" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I295" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J295" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K295" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L295" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N295" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="10">
+        <v>45606.76836255787</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D296" s="11">
+        <v>2.0243627E7</v>
+      </c>
+      <c r="E296" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="F296" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G296" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H296" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I296" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J296" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K296" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L296" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N296" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="7">
+        <v>45606.76894081019</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D297" s="8">
+        <v>2.0242101E7</v>
+      </c>
+      <c r="E297" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="F297" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G297" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H297" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I297" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J297" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K297" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L297" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N297" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="10">
+        <v>45606.78094332176</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="C298" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D298" s="11">
+        <v>2.022301E7</v>
+      </c>
+      <c r="E298" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="F298" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G298" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H298" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I298" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J298" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K298" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L298" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N298" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="7">
+        <v>45606.79202796296</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D299" s="8">
+        <v>2.0207089E7</v>
+      </c>
+      <c r="E299" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="F299" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G299" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H299" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I299" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J299" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K299" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L299" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M299" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="10">
+        <v>45606.80099267361</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="C300" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D300" s="11">
+        <v>2.024296E7</v>
+      </c>
+      <c r="E300" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="F300" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G300" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H300" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I300" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J300" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K300" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L300" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N300" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="7">
+        <v>45606.81368575231</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D301" s="8">
+        <v>2.0243723E7</v>
+      </c>
+      <c r="E301" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="F301" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G301" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H301" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I301" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J301" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K301" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L301" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N301" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="10">
+        <v>45606.81933680555</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C302" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D302" s="11">
+        <v>2.0191226E7</v>
+      </c>
+      <c r="E302" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="F302" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G302" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H302" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I302" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J302" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K302" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L302" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M302" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="7">
+        <v>45606.82238346065</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D303" s="8">
+        <v>2.0232311E7</v>
+      </c>
+      <c r="E303" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F303" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G303" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H303" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I303" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J303" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K303" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L303" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M303" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="10">
+        <v>45606.83217796296</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C304" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D304" s="11">
+        <v>2.024413E7</v>
+      </c>
+      <c r="E304" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="F304" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G304" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H304" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I304" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J304" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K304" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L304" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M304" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="7">
+        <v>45606.83237192129</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D305" s="8">
+        <v>2.0241081E7</v>
+      </c>
+      <c r="E305" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="F305" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G305" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H305" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I305" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J305" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K305" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L305" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N305" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="10">
+        <v>45606.85398221065</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C306" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D306" s="11">
+        <v>2.0192721E7</v>
+      </c>
+      <c r="E306" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="F306" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G306" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H306" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I306" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J306" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K306" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L306" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M306" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="7">
+        <v>45606.86657268519</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D307" s="8">
+        <v>2.0232216E7</v>
+      </c>
+      <c r="E307" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="F307" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G307" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H307" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I307" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J307" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K307" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L307" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N307" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="10">
+        <v>45606.8678187037</v>
+      </c>
+      <c r="B308" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="C308" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D308" s="11">
+        <v>2.0242314E7</v>
+      </c>
+      <c r="E308" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="F308" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G308" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H308" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I308" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J308" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K308" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L308" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N308" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="7">
+        <v>45606.87277127315</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="D309" s="8">
+        <v>2.0227022E7</v>
+      </c>
+      <c r="E309" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="F309" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G309" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H309" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I309" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J309" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K309" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L309" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M309" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="10">
+        <v>45606.87897605324</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="C310" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D310" s="11">
+        <v>2.0241017E7</v>
+      </c>
+      <c r="E310" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="F310" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G310" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H310" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I310" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J310" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K310" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L310" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M310" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="7">
+        <v>45606.880286851854</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D311" s="8">
+        <v>2.0231623E7</v>
+      </c>
+      <c r="E311" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="F311" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G311" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H311" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I311" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J311" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K311" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L311" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N311" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="10">
+        <v>45606.88522236111</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="C312" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D312" s="11">
+        <v>2.0243007E7</v>
+      </c>
+      <c r="E312" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="F312" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G312" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H312" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I312" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J312" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K312" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L312" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M312" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="7">
+        <v>45606.887258518516</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="C313" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D313" s="8">
+        <v>2.0241503E7</v>
+      </c>
+      <c r="E313" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="F313" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G313" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H313" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I313" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J313" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K313" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L313" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M313" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="13">
+        <v>45606.890480625</v>
+      </c>
+      <c r="B314" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="C314" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="D314" s="14">
+        <v>2.0222514E7</v>
+      </c>
+      <c r="E314" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="F314" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G314" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H314" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I314" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J314" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K314" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L314" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M314" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241104_tmp.xlsx
+++ b/R/data/quiz241104_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="770">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2225,6 +2225,102 @@
   </si>
   <si>
     <t>김원형</t>
+  </si>
+  <si>
+    <t>tigerhaha1@naver.com</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>juhui050356@naver.com</t>
+  </si>
+  <si>
+    <t>김주희</t>
+  </si>
+  <si>
+    <t>minjeongkim329@gmail.com</t>
+  </si>
+  <si>
+    <t>간호</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>p20236727@gmail.com</t>
+  </si>
+  <si>
+    <t>박진서</t>
+  </si>
+  <si>
+    <t>yssong1919@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경제학과 </t>
+  </si>
+  <si>
+    <t>송예상</t>
+  </si>
+  <si>
+    <t>parkjinseo23@naver.com</t>
+  </si>
+  <si>
+    <t>silpy2000@icloud.com</t>
+  </si>
+  <si>
+    <t>이윤건</t>
+  </si>
+  <si>
+    <t>giyongi37@gmail.com</t>
+  </si>
+  <si>
+    <t>이기용</t>
+  </si>
+  <si>
+    <t>wizkids0418@naver.com</t>
+  </si>
+  <si>
+    <t>박혜인</t>
+  </si>
+  <si>
+    <t>oys55736@gmail.com</t>
+  </si>
+  <si>
+    <t>오윤서</t>
+  </si>
+  <si>
+    <t>donghyun6652@gmail.com</t>
+  </si>
+  <si>
+    <t>한동현</t>
+  </si>
+  <si>
+    <t>chiyoon12@gmail.com</t>
+  </si>
+  <si>
+    <t>김치윤</t>
+  </si>
+  <si>
+    <t>Psj050317@naver.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>siqyy2003@gmail.com</t>
+  </si>
+  <si>
+    <t>체육</t>
+  </si>
+  <si>
+    <t>양민서</t>
+  </si>
+  <si>
+    <t>cindy_lol@naver.com</t>
+  </si>
+  <si>
+    <t>권한별</t>
   </si>
 </sst>
 </file>
@@ -2255,7 +2351,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -2388,10 +2484,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2399,13 +2495,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2415,7 +2525,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2459,6 +2569,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2519,7 +2632,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N314" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N329" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -15601,44 +15714,659 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="13">
+      <c r="A314" s="10">
         <v>45606.890480625</v>
       </c>
-      <c r="B314" s="14" t="s">
+      <c r="B314" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="C314" s="14" t="s">
+      <c r="C314" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="D314" s="14">
+      <c r="D314" s="11">
         <v>2.0222514E7</v>
       </c>
-      <c r="E314" s="14" t="s">
+      <c r="E314" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="F314" s="14" t="s">
+      <c r="F314" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G314" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H314" s="14" t="s">
+      <c r="G314" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H314" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I314" s="14" t="s">
+      <c r="I314" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J314" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K314" s="14" t="s">
+      <c r="J314" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K314" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L314" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M314" s="14" t="s">
+      <c r="L314" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M314" s="11" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="7">
+        <v>45606.902035335646</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="C315" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D315" s="8">
+        <v>2.0216716E7</v>
+      </c>
+      <c r="E315" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="F315" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G315" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H315" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I315" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J315" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K315" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L315" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N315" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="10">
+        <v>45606.912927997684</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="C316" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D316" s="11">
+        <v>2.0242111E7</v>
+      </c>
+      <c r="E316" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="F316" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G316" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H316" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I316" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J316" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K316" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L316" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M316" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="7">
+        <v>45606.917837037035</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="C317" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="D317" s="8">
+        <v>2.0246218E7</v>
+      </c>
+      <c r="E317" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="F317" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G317" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H317" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I317" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J317" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K317" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L317" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M317" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="10">
+        <v>45606.925919409725</v>
+      </c>
+      <c r="B318" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="C318" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D318" s="11">
+        <v>2.0236727E7</v>
+      </c>
+      <c r="E318" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="F318" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G318" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H318" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I318" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J318" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K318" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L318" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M318" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="7">
+        <v>45606.92824927083</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="D319" s="8">
+        <v>2.0227078E7</v>
+      </c>
+      <c r="E319" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="F319" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G319" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H319" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I319" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J319" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K319" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L319" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M319" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="10">
+        <v>45606.93217925926</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="C320" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D320" s="11">
+        <v>2.0242824E7</v>
+      </c>
+      <c r="E320" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="F320" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G320" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H320" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I320" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J320" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K320" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L320" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M320" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="7">
+        <v>45606.94217627315</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D321" s="8">
+        <v>2.0216628E7</v>
+      </c>
+      <c r="E321" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="F321" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G321" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H321" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I321" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J321" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K321" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L321" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N321" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="10">
+        <v>45606.946045034725</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="C322" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D322" s="11">
+        <v>2.0215199E7</v>
+      </c>
+      <c r="E322" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="F322" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G322" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H322" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I322" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J322" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K322" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L322" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N322" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="7">
+        <v>45606.94614854167</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D323" s="8">
+        <v>2.0242327E7</v>
+      </c>
+      <c r="E323" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="F323" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G323" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H323" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I323" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J323" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K323" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L323" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M323" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="10">
+        <v>45606.94744550926</v>
+      </c>
+      <c r="B324" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="C324" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D324" s="11">
+        <v>2.0242332E7</v>
+      </c>
+      <c r="E324" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="F324" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G324" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H324" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I324" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J324" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K324" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L324" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N324" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="7">
+        <v>45606.9512650463</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D325" s="8">
+        <v>2.02463E7</v>
+      </c>
+      <c r="E325" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="F325" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G325" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H325" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I325" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J325" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K325" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L325" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M325" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="10">
+        <v>45606.95333770833</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="C326" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="D326" s="11">
+        <v>2.0232938E7</v>
+      </c>
+      <c r="E326" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="F326" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G326" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H326" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I326" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J326" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K326" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L326" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N326" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="7">
+        <v>45606.95447334491</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D327" s="8">
+        <v>2.0242323E7</v>
+      </c>
+      <c r="E327" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="F327" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G327" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H327" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I327" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J327" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K327" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L327" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M327" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="10">
+        <v>45606.994602453706</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C328" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="D328" s="11">
+        <v>2.0224123E7</v>
+      </c>
+      <c r="E328" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="F328" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G328" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H328" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I328" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J328" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K328" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L328" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N328" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="13">
+        <v>45607.00505515047</v>
+      </c>
+      <c r="B329" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="C329" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="D329" s="14">
+        <v>2.0201007E7</v>
+      </c>
+      <c r="E329" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="F329" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G329" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H329" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I329" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J329" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K329" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L329" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N329" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241104_tmp.xlsx
+++ b/R/data/quiz241104_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4027" uniqueCount="850">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2321,6 +2321,246 @@
   </si>
   <si>
     <t>권한별</t>
+  </si>
+  <si>
+    <t>seomina0503@naver.com</t>
+  </si>
+  <si>
+    <t>서민이</t>
+  </si>
+  <si>
+    <t>0214lily@naver.com</t>
+  </si>
+  <si>
+    <t>김가희</t>
+  </si>
+  <si>
+    <t>5tmddk@naver.com</t>
+  </si>
+  <si>
+    <t>최승아</t>
+  </si>
+  <si>
+    <t>kmg0187@naver.com</t>
+  </si>
+  <si>
+    <t>김민지</t>
+  </si>
+  <si>
+    <t>zzun1414@naver.com</t>
+  </si>
+  <si>
+    <t>반도체·디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>황준영</t>
+  </si>
+  <si>
+    <t>yeonjej51@gmail.com</t>
+  </si>
+  <si>
+    <t>정연제</t>
+  </si>
+  <si>
+    <t>tomas313@naver.com</t>
+  </si>
+  <si>
+    <t>라태민</t>
+  </si>
+  <si>
+    <t>4080jjh@gmail.com</t>
+  </si>
+  <si>
+    <t>장재환</t>
+  </si>
+  <si>
+    <t>jkmy2516@naver.com</t>
+  </si>
+  <si>
+    <t>장석빈</t>
+  </si>
+  <si>
+    <t>ljk2942@gmail.com</t>
+  </si>
+  <si>
+    <t>이재권</t>
+  </si>
+  <si>
+    <t>soo060102@gmail.com</t>
+  </si>
+  <si>
+    <t>남궁수</t>
+  </si>
+  <si>
+    <t>chetbaker22@naver.com</t>
+  </si>
+  <si>
+    <t>철학전공</t>
+  </si>
+  <si>
+    <t>김채원</t>
+  </si>
+  <si>
+    <t>jsh050906@naver.com</t>
+  </si>
+  <si>
+    <t>정송희</t>
+  </si>
+  <si>
+    <t>changho0216@gmail.com</t>
+  </si>
+  <si>
+    <t>이창호</t>
+  </si>
+  <si>
+    <t>xormr1505@naver.com</t>
+  </si>
+  <si>
+    <t>박찬원</t>
+  </si>
+  <si>
+    <t>leeeunbi0717@naver.com</t>
+  </si>
+  <si>
+    <t>이은비</t>
+  </si>
+  <si>
+    <t>seungye04@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>정승예</t>
+  </si>
+  <si>
+    <t>ksfu03@naver.com</t>
+  </si>
+  <si>
+    <t>이규성</t>
+  </si>
+  <si>
+    <t>woonsuck0916@naver.com</t>
+  </si>
+  <si>
+    <t>운석현</t>
+  </si>
+  <si>
+    <t>kjinju0518@naver.com</t>
+  </si>
+  <si>
+    <t>김진주</t>
+  </si>
+  <si>
+    <t>jione0831@naver.com</t>
+  </si>
+  <si>
+    <t>윤지원</t>
+  </si>
+  <si>
+    <t>altigerlee@gmail.com</t>
+  </si>
+  <si>
+    <t>AI의료융합전공</t>
+  </si>
+  <si>
+    <t>이재현</t>
+  </si>
+  <si>
+    <t>kyj57980@gmail.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>jin050828@gmail.com</t>
+  </si>
+  <si>
+    <t>김진영</t>
+  </si>
+  <si>
+    <t>erang051216@naver.com</t>
+  </si>
+  <si>
+    <t>박이랑</t>
+  </si>
+  <si>
+    <t>rer220@naver.com</t>
+  </si>
+  <si>
+    <t>김대명</t>
+  </si>
+  <si>
+    <t>tidlswjddms@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>임정은</t>
+  </si>
+  <si>
+    <t>minwl19@naver.com</t>
+  </si>
+  <si>
+    <t>조민지</t>
+  </si>
+  <si>
+    <t>yeongjus6552@gmail.com</t>
+  </si>
+  <si>
+    <t>서영주</t>
+  </si>
+  <si>
+    <t>seostone1018@gmail.com</t>
+  </si>
+  <si>
+    <t>서준석</t>
+  </si>
+  <si>
+    <t>chsmdfur123@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>이한얼</t>
+  </si>
+  <si>
+    <t>kjins1234@naver.com</t>
+  </si>
+  <si>
+    <t>김진수</t>
+  </si>
+  <si>
+    <t>haksun0217@naver.com</t>
+  </si>
+  <si>
+    <t>김학선</t>
+  </si>
+  <si>
+    <t>orientfun@gmail.com</t>
+  </si>
+  <si>
+    <t>이동화</t>
+  </si>
+  <si>
+    <t>sin50407899@gmail.com</t>
+  </si>
+  <si>
+    <t>신재화</t>
+  </si>
+  <si>
+    <t>whdudgus1013@gmail.com</t>
+  </si>
+  <si>
+    <t>조영현</t>
+  </si>
+  <si>
+    <t>lg01022928122@gmail.com</t>
+  </si>
+  <si>
+    <t>권주용</t>
   </si>
 </sst>
 </file>
@@ -2484,10 +2724,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2495,13 +2735,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2509,13 +2749,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2632,7 +2872,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N329" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N366" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -16329,44 +16569,1561 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="13">
+      <c r="A329" s="7">
         <v>45607.00505515047</v>
       </c>
-      <c r="B329" s="14" t="s">
+      <c r="B329" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="C329" s="14" t="s">
+      <c r="C329" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="D329" s="14">
+      <c r="D329" s="8">
         <v>2.0201007E7</v>
       </c>
-      <c r="E329" s="14" t="s">
+      <c r="E329" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="F329" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G329" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H329" s="14" t="s">
+      <c r="F329" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G329" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H329" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I329" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J329" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K329" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L329" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N329" s="15" t="s">
+      <c r="I329" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J329" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K329" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L329" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N329" s="9" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="10">
+        <v>45607.0089037963</v>
+      </c>
+      <c r="B330" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="C330" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D330" s="11">
+        <v>2.0246244E7</v>
+      </c>
+      <c r="E330" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="F330" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G330" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H330" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I330" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J330" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K330" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L330" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M330" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="7">
+        <v>45607.025874467596</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D331" s="8">
+        <v>2.0214104E7</v>
+      </c>
+      <c r="E331" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="F331" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G331" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H331" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I331" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J331" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K331" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L331" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N331" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="10">
+        <v>45607.051573460645</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="C332" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D332" s="11">
+        <v>2.0192634E7</v>
+      </c>
+      <c r="E332" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="F332" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G332" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H332" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I332" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J332" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K332" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L332" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M332" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="7">
+        <v>45607.10104675926</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D333" s="8">
+        <v>2.0203802E7</v>
+      </c>
+      <c r="E333" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="F333" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G333" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H333" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I333" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J333" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K333" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L333" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N333" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="10">
+        <v>45607.10880590278</v>
+      </c>
+      <c r="B334" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="C334" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="D334" s="11">
+        <v>2.0203352E7</v>
+      </c>
+      <c r="E334" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="F334" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G334" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H334" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I334" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J334" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K334" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L334" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M334" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="7">
+        <v>45607.12398957176</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D335" s="8">
+        <v>2.0241234E7</v>
+      </c>
+      <c r="E335" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="F335" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G335" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H335" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I335" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J335" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K335" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L335" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N335" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="10">
+        <v>45607.3765674537</v>
+      </c>
+      <c r="B336" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="C336" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D336" s="11">
+        <v>2.0214116E7</v>
+      </c>
+      <c r="E336" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="F336" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G336" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H336" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I336" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J336" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K336" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L336" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M336" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="7">
+        <v>45607.41608574074</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D337" s="8">
+        <v>2.0182436E7</v>
+      </c>
+      <c r="E337" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="F337" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G337" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H337" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I337" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J337" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K337" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L337" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M337" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="10">
+        <v>45607.45812790509</v>
+      </c>
+      <c r="B338" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="C338" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D338" s="11">
+        <v>2.0191084E7</v>
+      </c>
+      <c r="E338" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="F338" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G338" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H338" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I338" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J338" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K338" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L338" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M338" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="7">
+        <v>45607.49053487269</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D339" s="8">
+        <v>2.0241224E7</v>
+      </c>
+      <c r="E339" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="F339" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G339" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H339" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I339" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J339" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K339" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L339" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N339" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="10">
+        <v>45607.53343614584</v>
+      </c>
+      <c r="B340" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="C340" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D340" s="11">
+        <v>2.024371E7</v>
+      </c>
+      <c r="E340" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="F340" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G340" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H340" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I340" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J340" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K340" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L340" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N340" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="7">
+        <v>45607.573628391205</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="D341" s="8">
+        <v>2.0201031E7</v>
+      </c>
+      <c r="E341" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="F341" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G341" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H341" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I341" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J341" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K341" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L341" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N341" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="10">
+        <v>45607.581333159724</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="C342" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D342" s="11">
+        <v>2.0243032E7</v>
+      </c>
+      <c r="E342" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="F342" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G342" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H342" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I342" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J342" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K342" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L342" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N342" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="7">
+        <v>45607.61909890047</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D343" s="8">
+        <v>2.0243941E7</v>
+      </c>
+      <c r="E343" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="F343" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G343" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H343" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I343" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J343" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K343" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L343" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N343" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="10">
+        <v>45607.6388125</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="C344" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D344" s="11">
+        <v>2.0205176E7</v>
+      </c>
+      <c r="E344" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="F344" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G344" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H344" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I344" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J344" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K344" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L344" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M344" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="7">
+        <v>45607.652942326386</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D345" s="8">
+        <v>2.024234E7</v>
+      </c>
+      <c r="E345" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="F345" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G345" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H345" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I345" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J345" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K345" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L345" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M345" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="10">
+        <v>45607.671574837965</v>
+      </c>
+      <c r="B346" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C346" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="D346" s="11">
+        <v>2.0233846E7</v>
+      </c>
+      <c r="E346" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="F346" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G346" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H346" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I346" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J346" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K346" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L346" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N346" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="7">
+        <v>45607.69512862268</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D347" s="8">
+        <v>2.0201071E7</v>
+      </c>
+      <c r="E347" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="F347" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G347" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H347" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I347" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J347" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K347" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L347" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N347" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="10">
+        <v>45607.69674084491</v>
+      </c>
+      <c r="B348" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C348" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D348" s="11">
+        <v>2.0205206E7</v>
+      </c>
+      <c r="E348" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="F348" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G348" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H348" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I348" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J348" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K348" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L348" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N348" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="7">
+        <v>45607.78946855324</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D349" s="8">
+        <v>2.0232937E7</v>
+      </c>
+      <c r="E349" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="F349" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G349" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H349" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I349" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J349" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K349" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L349" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N349" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="10">
+        <v>45607.789925868055</v>
+      </c>
+      <c r="B350" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="C350" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D350" s="11">
+        <v>2.0246262E7</v>
+      </c>
+      <c r="E350" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="F350" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G350" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H350" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I350" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J350" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K350" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L350" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M350" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="7">
+        <v>45607.796631307865</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="D351" s="8">
+        <v>2.0196523E7</v>
+      </c>
+      <c r="E351" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="F351" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G351" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H351" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I351" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J351" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K351" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L351" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N351" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="10">
+        <v>45607.820227986114</v>
+      </c>
+      <c r="B352" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="C352" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D352" s="11">
+        <v>2.0202319E7</v>
+      </c>
+      <c r="E352" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="F352" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G352" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H352" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I352" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J352" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K352" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L352" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N352" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="7">
+        <v>45607.82754430556</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D353" s="8">
+        <v>2.0246715E7</v>
+      </c>
+      <c r="E353" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="F353" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G353" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H353" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I353" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J353" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K353" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L353" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N353" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="10">
+        <v>45607.83600594907</v>
+      </c>
+      <c r="B354" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="C354" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D354" s="11">
+        <v>2.0243223E7</v>
+      </c>
+      <c r="E354" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="F354" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G354" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H354" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I354" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J354" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K354" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L354" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N354" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="7">
+        <v>45607.960952002315</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D355" s="8">
+        <v>2.0205124E7</v>
+      </c>
+      <c r="E355" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="F355" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G355" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H355" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I355" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J355" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K355" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L355" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N355" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="10">
+        <v>45607.99930541667</v>
+      </c>
+      <c r="B356" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="C356" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="D356" s="11">
+        <v>2.020524E7</v>
+      </c>
+      <c r="E356" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="F356" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G356" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H356" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I356" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J356" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K356" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L356" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N356" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="7">
+        <v>45608.015307800924</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D357" s="8">
+        <v>2.0217178E7</v>
+      </c>
+      <c r="E357" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="F357" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G357" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H357" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I357" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J357" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K357" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L357" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N357" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="10">
+        <v>45608.23733215278</v>
+      </c>
+      <c r="B358" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="C358" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D358" s="11">
+        <v>2.0242973E7</v>
+      </c>
+      <c r="E358" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="F358" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G358" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H358" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I358" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J358" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K358" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L358" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N358" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="7">
+        <v>45608.43072127315</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D359" s="8">
+        <v>2.0243227E7</v>
+      </c>
+      <c r="E359" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="F359" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G359" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H359" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I359" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J359" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K359" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L359" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M359" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="10">
+        <v>45608.45745291667</v>
+      </c>
+      <c r="B360" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="C360" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="D360" s="11">
+        <v>2.0203026E7</v>
+      </c>
+      <c r="E360" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="F360" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G360" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H360" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I360" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J360" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K360" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L360" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N360" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="7">
+        <v>45608.50000219907</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D361" s="8">
+        <v>2.0182845E7</v>
+      </c>
+      <c r="E361" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="F361" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G361" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H361" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I361" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J361" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K361" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L361" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M361" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="10">
+        <v>45608.55442606482</v>
+      </c>
+      <c r="B362" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="C362" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D362" s="11">
+        <v>2.0243814E7</v>
+      </c>
+      <c r="E362" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="F362" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G362" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H362" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I362" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J362" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K362" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L362" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M362" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="7">
+        <v>45608.56293984954</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D363" s="8">
+        <v>2.0245218E7</v>
+      </c>
+      <c r="E363" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="F363" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G363" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H363" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I363" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J363" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K363" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L363" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M363" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="10">
+        <v>45608.5866127662</v>
+      </c>
+      <c r="B364" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="C364" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D364" s="11">
+        <v>2.0202538E7</v>
+      </c>
+      <c r="E364" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="F364" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G364" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H364" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I364" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J364" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K364" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L364" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M364" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="7">
+        <v>45608.6317621875</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D365" s="8">
+        <v>2.0243253E7</v>
+      </c>
+      <c r="E365" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="F365" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G365" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H365" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I365" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J365" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K365" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L365" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M365" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="13">
+        <v>45608.647627280094</v>
+      </c>
+      <c r="B366" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="C366" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D366" s="14">
+        <v>2.0215109E7</v>
+      </c>
+      <c r="E366" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="F366" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G366" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H366" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I366" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J366" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K366" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L366" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N366" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241104_tmp.xlsx
+++ b/R/data/quiz241104_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4027" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="925">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2561,6 +2561,231 @@
   </si>
   <si>
     <t>권주용</t>
+  </si>
+  <si>
+    <t>smartcindyya@gmail.com</t>
+  </si>
+  <si>
+    <t>박지현</t>
+  </si>
+  <si>
+    <t>qwe92517@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>minkyoung961@naver.com</t>
+  </si>
+  <si>
+    <t>h20191240@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>홍이래</t>
+  </si>
+  <si>
+    <t>phc5120@naver.com</t>
+  </si>
+  <si>
+    <t>박희철</t>
+  </si>
+  <si>
+    <t>dongkyo4@gmail.com</t>
+  </si>
+  <si>
+    <t>이동교</t>
+  </si>
+  <si>
+    <t>dw060419@naver.com</t>
+  </si>
+  <si>
+    <t>김도원</t>
+  </si>
+  <si>
+    <t>sky0219msh@naver.com</t>
+  </si>
+  <si>
+    <t>최하늘</t>
+  </si>
+  <si>
+    <t>ella2005710@gmail.com</t>
+  </si>
+  <si>
+    <t>김송이</t>
+  </si>
+  <si>
+    <t>mik21366@naver.com</t>
+  </si>
+  <si>
+    <t>김수진</t>
+  </si>
+  <si>
+    <t>kangyein0810@gmail.com</t>
+  </si>
+  <si>
+    <t>강예인</t>
+  </si>
+  <si>
+    <t>ran8410@naver.coom</t>
+  </si>
+  <si>
+    <t>언어병리학과</t>
+  </si>
+  <si>
+    <t>박경란</t>
+  </si>
+  <si>
+    <t>mi88368836@gmail.com</t>
+  </si>
+  <si>
+    <t>신민서</t>
+  </si>
+  <si>
+    <t>sejun4@naver.com</t>
+  </si>
+  <si>
+    <t>경영/청각</t>
+  </si>
+  <si>
+    <t>박세준</t>
+  </si>
+  <si>
+    <t>sbysooo@naver.com</t>
+  </si>
+  <si>
+    <t>신윤수</t>
+  </si>
+  <si>
+    <t>leejiheoen450@naver.com</t>
+  </si>
+  <si>
+    <t>이지현</t>
+  </si>
+  <si>
+    <t>gchans0524@gmail.com</t>
+  </si>
+  <si>
+    <t>한기찬</t>
+  </si>
+  <si>
+    <t>ljy46tkd@naver.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>sssm08155@gmail.com</t>
+  </si>
+  <si>
+    <t>윤희주</t>
+  </si>
+  <si>
+    <t>tqwquqqi@naver.com</t>
+  </si>
+  <si>
+    <t>강하늘</t>
+  </si>
+  <si>
+    <t>2468pp@naver.com</t>
+  </si>
+  <si>
+    <t>박성빈</t>
+  </si>
+  <si>
+    <t>kimhemi05@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜미</t>
+  </si>
+  <si>
+    <t>wjdalsrb303@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정치행정학과 </t>
+  </si>
+  <si>
+    <t>정민규</t>
+  </si>
+  <si>
+    <t>gee30901@naver.com</t>
+  </si>
+  <si>
+    <t>박예원</t>
+  </si>
+  <si>
+    <t>sengyu0805@gmail.com</t>
+  </si>
+  <si>
+    <t>나선아</t>
+  </si>
+  <si>
+    <t>bjw2934@naver.com</t>
+  </si>
+  <si>
+    <t>방정우</t>
+  </si>
+  <si>
+    <t>min010417@gmail.com</t>
+  </si>
+  <si>
+    <t>강채민</t>
+  </si>
+  <si>
+    <t>jhry0903@naver.com</t>
+  </si>
+  <si>
+    <t>조하령</t>
+  </si>
+  <si>
+    <t>yeel6945@naver.com</t>
+  </si>
+  <si>
+    <t>이수빈</t>
+  </si>
+  <si>
+    <t>marlboroe53@naver.com</t>
+  </si>
+  <si>
+    <t>lsd5741@naver.com</t>
+  </si>
+  <si>
+    <t>이소담</t>
+  </si>
+  <si>
+    <t>r67890@naver.com</t>
+  </si>
+  <si>
+    <t>이규형</t>
+  </si>
+  <si>
+    <t>qotnqls1126@naver.com</t>
+  </si>
+  <si>
+    <t>배수빈</t>
+  </si>
+  <si>
+    <t>rhkddyd234@naver.com</t>
+  </si>
+  <si>
+    <t>이광용</t>
+  </si>
+  <si>
+    <t>hihi2679@gmail.com</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>gyucheol0503@naver.com</t>
+  </si>
+  <si>
+    <t>홍규철</t>
+  </si>
+  <si>
+    <t>hyeonse0@naver.com</t>
+  </si>
+  <si>
+    <t>황현서</t>
   </si>
 </sst>
 </file>
@@ -2724,10 +2949,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2735,13 +2960,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2749,13 +2974,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2872,7 +3097,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N366" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N403" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -18086,43 +18311,1560 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="13">
+      <c r="A366" s="10">
         <v>45608.647627280094</v>
       </c>
-      <c r="B366" s="14" t="s">
+      <c r="B366" s="11" t="s">
         <v>848</v>
       </c>
-      <c r="C366" s="14" t="s">
+      <c r="C366" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D366" s="14">
+      <c r="D366" s="11">
         <v>2.0215109E7</v>
       </c>
-      <c r="E366" s="14" t="s">
+      <c r="E366" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="F366" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G366" s="14" t="s">
+      <c r="F366" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G366" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H366" s="14" t="s">
+      <c r="H366" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I366" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J366" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K366" s="14" t="s">
+      <c r="I366" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J366" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K366" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L366" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N366" s="15" t="s">
+      <c r="L366" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N366" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="7">
+        <v>45608.67623515046</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D367" s="8">
+        <v>2.0245172E7</v>
+      </c>
+      <c r="E367" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="F367" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G367" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H367" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I367" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J367" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K367" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L367" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M367" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="10">
+        <v>45608.67738710648</v>
+      </c>
+      <c r="B368" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="C368" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D368" s="11">
+        <v>2.0246271E7</v>
+      </c>
+      <c r="E368" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="F368" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G368" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H368" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I368" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J368" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K368" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L368" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N368" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="7">
+        <v>45608.685945000005</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D369" s="8">
+        <v>2.0231706E7</v>
+      </c>
+      <c r="E369" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="F369" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G369" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H369" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I369" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J369" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K369" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L369" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N369" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="10">
+        <v>45608.688096875005</v>
+      </c>
+      <c r="B370" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="C370" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D370" s="11">
+        <v>2.019124E7</v>
+      </c>
+      <c r="E370" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="F370" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G370" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H370" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I370" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J370" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K370" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L370" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N370" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="7">
+        <v>45608.69858831019</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D371" s="8">
+        <v>2.0183824E7</v>
+      </c>
+      <c r="E371" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="F371" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G371" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H371" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I371" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J371" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K371" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L371" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N371" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="10">
+        <v>45608.82517111111</v>
+      </c>
+      <c r="B372" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="C372" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="D372" s="11">
+        <v>2.0213241E7</v>
+      </c>
+      <c r="E372" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F372" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G372" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H372" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I372" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J372" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K372" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L372" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M372" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="7">
+        <v>45608.904033252315</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D373" s="8">
+        <v>2.0241509E7</v>
+      </c>
+      <c r="E373" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="F373" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G373" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H373" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I373" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J373" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K373" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L373" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N373" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="10">
+        <v>45608.929036643516</v>
+      </c>
+      <c r="B374" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="C374" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D374" s="11">
+        <v>2.0201108E7</v>
+      </c>
+      <c r="E374" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="F374" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G374" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H374" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I374" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J374" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K374" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L374" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M374" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="7">
+        <v>45608.969931273146</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D375" s="8">
+        <v>2.0246222E7</v>
+      </c>
+      <c r="E375" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="F375" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G375" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H375" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I375" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J375" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K375" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L375" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N375" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="10">
+        <v>45609.020778819446</v>
+      </c>
+      <c r="B376" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="C376" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D376" s="11">
+        <v>2.0233808E7</v>
+      </c>
+      <c r="E376" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="F376" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G376" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H376" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I376" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J376" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K376" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L376" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M376" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="7">
+        <v>45609.230735034726</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D377" s="8">
+        <v>2.0246603E7</v>
+      </c>
+      <c r="E377" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="F377" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G377" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H377" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I377" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J377" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K377" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L377" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M377" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="10">
+        <v>45609.41398737268</v>
+      </c>
+      <c r="B378" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="C378" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="D378" s="11">
+        <v>2.0203918E7</v>
+      </c>
+      <c r="E378" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="F378" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G378" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H378" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I378" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J378" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K378" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L378" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M378" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="7">
+        <v>45609.433199872685</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D379" s="8">
+        <v>2.0244126E7</v>
+      </c>
+      <c r="E379" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F379" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G379" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H379" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I379" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J379" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K379" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L379" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N379" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="10">
+        <v>45609.43625265046</v>
+      </c>
+      <c r="B380" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="C380" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="D380" s="11">
+        <v>2.0193968E7</v>
+      </c>
+      <c r="E380" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="F380" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G380" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H380" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I380" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J380" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K380" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L380" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M380" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="7">
+        <v>45609.45995334491</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D381" s="8">
+        <v>2.0227155E7</v>
+      </c>
+      <c r="E381" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="F381" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G381" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H381" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I381" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J381" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K381" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L381" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M381" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="10">
+        <v>45609.46779751158</v>
+      </c>
+      <c r="B382" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="C382" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D382" s="11">
+        <v>2.0242232E7</v>
+      </c>
+      <c r="E382" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="F382" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G382" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H382" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I382" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J382" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K382" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L382" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M382" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="7">
+        <v>45609.53550916667</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D383" s="8">
+        <v>2.0244152E7</v>
+      </c>
+      <c r="E383" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="F383" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G383" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H383" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I383" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J383" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K383" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L383" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M383" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="10">
+        <v>45609.550993310186</v>
+      </c>
+      <c r="B384" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="C384" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D384" s="11">
+        <v>2.0242737E7</v>
+      </c>
+      <c r="E384" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="F384" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G384" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H384" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I384" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J384" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K384" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L384" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M384" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="7">
+        <v>45609.56383828704</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D385" s="8">
+        <v>2.020107E7</v>
+      </c>
+      <c r="E385" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="F385" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G385" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H385" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I385" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J385" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K385" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L385" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N385" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="10">
+        <v>45609.572553668986</v>
+      </c>
+      <c r="B386" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="C386" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D386" s="11">
+        <v>2.0222905E7</v>
+      </c>
+      <c r="E386" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="F386" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G386" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H386" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I386" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J386" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K386" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L386" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N386" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="7">
+        <v>45609.57709518519</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D387" s="8">
+        <v>2.0193813E7</v>
+      </c>
+      <c r="E387" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="F387" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G387" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H387" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I387" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J387" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K387" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L387" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M387" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="10">
+        <v>45609.606316087964</v>
+      </c>
+      <c r="B388" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="C388" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D388" s="11">
+        <v>2.0242112E7</v>
+      </c>
+      <c r="E388" s="11" t="s">
+        <v>894</v>
+      </c>
+      <c r="F388" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G388" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H388" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I388" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J388" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K388" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L388" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M388" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="7">
+        <v>45609.60827923611</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D389" s="8">
+        <v>2.0202431E7</v>
+      </c>
+      <c r="E389" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="F389" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G389" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H389" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I389" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J389" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K389" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L389" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M389" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="10">
+        <v>45609.70998260417</v>
+      </c>
+      <c r="B390" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="C390" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D390" s="11">
+        <v>2.0246238E7</v>
+      </c>
+      <c r="E390" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="F390" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G390" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H390" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I390" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J390" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K390" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L390" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N390" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="7">
+        <v>45609.79524983796</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D391" s="8">
+        <v>2.0245152E7</v>
+      </c>
+      <c r="E391" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="F391" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G391" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H391" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I391" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J391" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K391" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L391" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N391" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="10">
+        <v>45609.912462569446</v>
+      </c>
+      <c r="B392" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="C392" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D392" s="11">
+        <v>2.0205182E7</v>
+      </c>
+      <c r="E392" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="F392" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G392" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H392" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I392" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J392" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K392" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L392" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M392" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="7">
+        <v>45609.95145079861</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D393" s="8">
+        <v>2.0203702E7</v>
+      </c>
+      <c r="E393" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="F393" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G393" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H393" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I393" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J393" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K393" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L393" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N393" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="10">
+        <v>45609.96869306713</v>
+      </c>
+      <c r="B394" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="C394" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D394" s="11">
+        <v>2.0241097E7</v>
+      </c>
+      <c r="E394" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="F394" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G394" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H394" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I394" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J394" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K394" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L394" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M394" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="7">
+        <v>45610.00260744213</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D395" s="8">
+        <v>2.0203635E7</v>
+      </c>
+      <c r="E395" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="F395" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G395" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H395" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I395" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J395" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K395" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L395" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M395" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="10">
+        <v>45610.01036850695</v>
+      </c>
+      <c r="B396" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="C396" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D396" s="11">
+        <v>2.0203302E7</v>
+      </c>
+      <c r="E396" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F396" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G396" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H396" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I396" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J396" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K396" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L396" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N396" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="7">
+        <v>45610.47358795139</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D397" s="8">
+        <v>2.0242225E7</v>
+      </c>
+      <c r="E397" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="F397" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G397" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H397" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I397" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J397" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K397" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L397" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N397" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="10">
+        <v>45610.54782180555</v>
+      </c>
+      <c r="B398" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="C398" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="D398" s="11">
+        <v>2.0205217E7</v>
+      </c>
+      <c r="E398" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="F398" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G398" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H398" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I398" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J398" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K398" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L398" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M398" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="7">
+        <v>45610.62181136574</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D399" s="8">
+        <v>2.020382E7</v>
+      </c>
+      <c r="E399" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="F399" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G399" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H399" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I399" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J399" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K399" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L399" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N399" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="10">
+        <v>45610.63946946759</v>
+      </c>
+      <c r="B400" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="C400" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D400" s="11">
+        <v>2.019342E7</v>
+      </c>
+      <c r="E400" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="F400" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G400" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H400" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I400" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J400" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K400" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L400" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N400" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="7">
+        <v>45610.71659172454</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D401" s="8">
+        <v>2.0243815E7</v>
+      </c>
+      <c r="E401" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="F401" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G401" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H401" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I401" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J401" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K401" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L401" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M401" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="10">
+        <v>45610.75491386574</v>
+      </c>
+      <c r="B402" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="C402" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="D402" s="11">
+        <v>2.024365E7</v>
+      </c>
+      <c r="E402" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="F402" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G402" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H402" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I402" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J402" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K402" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L402" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M402" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="13">
+        <v>45610.78766905093</v>
+      </c>
+      <c r="B403" s="14" t="s">
+        <v>923</v>
+      </c>
+      <c r="C403" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D403" s="14">
+        <v>2.0202761E7</v>
+      </c>
+      <c r="E403" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="F403" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G403" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H403" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I403" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J403" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K403" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L403" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N403" s="15" t="s">
         <v>33</v>
       </c>
     </row>

--- a/R/data/quiz241104_tmp.xlsx
+++ b/R/data/quiz241104_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="945">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2786,6 +2786,66 @@
   </si>
   <si>
     <t>황현서</t>
+  </si>
+  <si>
+    <t>tngusvhs@gmail.com</t>
+  </si>
+  <si>
+    <t>이수현</t>
+  </si>
+  <si>
+    <t>jerryterryharry@gmail.com</t>
+  </si>
+  <si>
+    <t>문진영</t>
+  </si>
+  <si>
+    <t>lhw2565@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜원</t>
+  </si>
+  <si>
+    <t>yhh323@naver.com</t>
+  </si>
+  <si>
+    <t>유형호</t>
+  </si>
+  <si>
+    <t>bigeyejimmy1@naver.com</t>
+  </si>
+  <si>
+    <t>김현준</t>
+  </si>
+  <si>
+    <t>jiyewon5555@gmail.com</t>
+  </si>
+  <si>
+    <t>지예원</t>
+  </si>
+  <si>
+    <t>a01053076907@gmail.com</t>
+  </si>
+  <si>
+    <t>원은성</t>
+  </si>
+  <si>
+    <t>hyj13223@naver.com</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>bcy1976@naver.com</t>
+  </si>
+  <si>
+    <t>변치윤</t>
+  </si>
+  <si>
+    <t>emf1811@naver.com</t>
+  </si>
+  <si>
+    <t>김들</t>
   </si>
 </sst>
 </file>
@@ -3097,7 +3157,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N403" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N413" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -19828,43 +19888,453 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="13">
+      <c r="A403" s="7">
         <v>45610.78766905093</v>
       </c>
-      <c r="B403" s="14" t="s">
+      <c r="B403" s="8" t="s">
         <v>923</v>
       </c>
-      <c r="C403" s="14" t="s">
+      <c r="C403" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D403" s="14">
+      <c r="D403" s="8">
         <v>2.0202761E7</v>
       </c>
-      <c r="E403" s="14" t="s">
+      <c r="E403" s="8" t="s">
         <v>924</v>
       </c>
-      <c r="F403" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G403" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H403" s="14" t="s">
+      <c r="F403" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G403" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H403" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I403" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J403" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K403" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L403" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N403" s="15" t="s">
+      <c r="I403" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J403" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K403" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L403" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N403" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="10">
+        <v>45610.96508303241</v>
+      </c>
+      <c r="B404" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="C404" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D404" s="11">
+        <v>2.0243529E7</v>
+      </c>
+      <c r="E404" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="F404" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G404" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H404" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I404" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J404" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K404" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L404" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N404" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="7">
+        <v>45610.984333229164</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D405" s="8">
+        <v>2.0205162E7</v>
+      </c>
+      <c r="E405" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="F405" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G405" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H405" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I405" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J405" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K405" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L405" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M405" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="10">
+        <v>45611.03941334491</v>
+      </c>
+      <c r="B406" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D406" s="11">
+        <v>2.0242565E7</v>
+      </c>
+      <c r="E406" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="F406" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G406" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H406" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I406" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J406" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K406" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L406" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N406" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="7">
+        <v>45611.464987430554</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D407" s="8">
+        <v>2.0184132E7</v>
+      </c>
+      <c r="E407" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="F407" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G407" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H407" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I407" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J407" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K407" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L407" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N407" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="10">
+        <v>45611.540331122684</v>
+      </c>
+      <c r="B408" s="11" t="s">
+        <v>933</v>
+      </c>
+      <c r="C408" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D408" s="11">
+        <v>2.018285E7</v>
+      </c>
+      <c r="E408" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="F408" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G408" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H408" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I408" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J408" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K408" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L408" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N408" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="7">
+        <v>45611.588682002315</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D409" s="8">
+        <v>2.0202641E7</v>
+      </c>
+      <c r="E409" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="F409" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G409" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H409" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I409" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J409" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K409" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L409" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M409" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="10">
+        <v>45611.59365976852</v>
+      </c>
+      <c r="B410" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="C410" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="D410" s="11">
+        <v>2.0246927E7</v>
+      </c>
+      <c r="E410" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="F410" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G410" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H410" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I410" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J410" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K410" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L410" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N410" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="7">
+        <v>45611.65700553241</v>
+      </c>
+      <c r="B411" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D411" s="8">
+        <v>2.0212432E7</v>
+      </c>
+      <c r="E411" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="F411" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G411" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H411" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I411" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J411" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K411" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L411" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M411" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="10">
+        <v>45611.703416331016</v>
+      </c>
+      <c r="B412" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="C412" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="D412" s="11">
+        <v>2.023518E7</v>
+      </c>
+      <c r="E412" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="F412" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G412" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H412" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I412" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J412" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K412" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L412" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N412" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="13">
+        <v>45611.709958182866</v>
+      </c>
+      <c r="B413" s="14" t="s">
+        <v>943</v>
+      </c>
+      <c r="C413" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D413" s="14">
+        <v>2.0233605E7</v>
+      </c>
+      <c r="E413" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="F413" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G413" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H413" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I413" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J413" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K413" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L413" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N413" s="15" t="s">
         <v>33</v>
       </c>
     </row>

--- a/R/data/quiz241104_tmp.xlsx
+++ b/R/data/quiz241104_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5600" uniqueCount="1143">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2846,6 +2846,600 @@
   </si>
   <si>
     <t>김들</t>
+  </si>
+  <si>
+    <t>leyy2k@naver.com</t>
+  </si>
+  <si>
+    <t>김대현</t>
+  </si>
+  <si>
+    <t>20182346@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이용재</t>
+  </si>
+  <si>
+    <t>krdevmon@gmail.com</t>
+  </si>
+  <si>
+    <t>안봉근</t>
+  </si>
+  <si>
+    <t>leedongyoung797@gmail.com</t>
+  </si>
+  <si>
+    <t>이동영</t>
+  </si>
+  <si>
+    <t>njhouuu05@naver.com</t>
+  </si>
+  <si>
+    <t>남진호</t>
+  </si>
+  <si>
+    <t>vcx76613@gmail.com</t>
+  </si>
+  <si>
+    <t>황인태</t>
+  </si>
+  <si>
+    <t>jyl06070@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합학과</t>
+  </si>
+  <si>
+    <t>장유림</t>
+  </si>
+  <si>
+    <t>andy041001@naver.com</t>
+  </si>
+  <si>
+    <t>이형범</t>
+  </si>
+  <si>
+    <t>hyerujys2005@naver.com</t>
+  </si>
+  <si>
+    <t>정윤수</t>
+  </si>
+  <si>
+    <t>kms050915@naver.com</t>
+  </si>
+  <si>
+    <t>강명수</t>
+  </si>
+  <si>
+    <t>kmu2916@naver.com</t>
+  </si>
+  <si>
+    <t>강민욱</t>
+  </si>
+  <si>
+    <t>junseok5310@naver.com</t>
+  </si>
+  <si>
+    <t>오준석</t>
+  </si>
+  <si>
+    <t>ssjm9652@naver.com</t>
+  </si>
+  <si>
+    <t>소정민</t>
+  </si>
+  <si>
+    <t>taehwankim05@gmail.com</t>
+  </si>
+  <si>
+    <t>김태환</t>
+  </si>
+  <si>
+    <t>sekhoo313@gmail.com</t>
+  </si>
+  <si>
+    <t>박석호</t>
+  </si>
+  <si>
+    <t>oj5803@naver.com</t>
+  </si>
+  <si>
+    <t>이영주</t>
+  </si>
+  <si>
+    <t>rhoy3156@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>노원철</t>
+  </si>
+  <si>
+    <t>hg2635394@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>wendy040507@naver.com</t>
+  </si>
+  <si>
+    <t>hanyejun339@gmail.com</t>
+  </si>
+  <si>
+    <t>한예준</t>
+  </si>
+  <si>
+    <t>haeyaxx@naver.com</t>
+  </si>
+  <si>
+    <t>차지혜</t>
+  </si>
+  <si>
+    <t>0524psu@gmail.com</t>
+  </si>
+  <si>
+    <t>박상언</t>
+  </si>
+  <si>
+    <t>you33013301@gmail.com</t>
+  </si>
+  <si>
+    <t>권유정</t>
+  </si>
+  <si>
+    <t>hcheon27@gmail.com</t>
+  </si>
+  <si>
+    <t>천하윤</t>
+  </si>
+  <si>
+    <t>alwo990@naver.com</t>
+  </si>
+  <si>
+    <t>서정웅</t>
+  </si>
+  <si>
+    <t>hsbg1118@gmail.com</t>
+  </si>
+  <si>
+    <t>전희성</t>
+  </si>
+  <si>
+    <t>fred0203@naver.com</t>
+  </si>
+  <si>
+    <t>언어청각학부 청각학전공</t>
+  </si>
+  <si>
+    <t>이강준</t>
+  </si>
+  <si>
+    <t>jyb051128@gmai.com</t>
+  </si>
+  <si>
+    <t>전유빈</t>
+  </si>
+  <si>
+    <t>ghkdxo2003@gmail.com</t>
+  </si>
+  <si>
+    <t>황이준</t>
+  </si>
+  <si>
+    <t>solepkinsg@gmail.com</t>
+  </si>
+  <si>
+    <t>박인성</t>
+  </si>
+  <si>
+    <t>dearmy0819@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜원</t>
+  </si>
+  <si>
+    <t>kby5432@naver.com</t>
+  </si>
+  <si>
+    <t>윤경빈</t>
+  </si>
+  <si>
+    <t>rlaehdnr999@naver.com</t>
+  </si>
+  <si>
+    <t>김도욱</t>
+  </si>
+  <si>
+    <t>chaecjb@naver.com</t>
+  </si>
+  <si>
+    <t>채희수</t>
+  </si>
+  <si>
+    <t>kimteawan347@gmail.com</t>
+  </si>
+  <si>
+    <t>김태완</t>
+  </si>
+  <si>
+    <t>ian5791@naver.com</t>
+  </si>
+  <si>
+    <t>박수현</t>
+  </si>
+  <si>
+    <t>jeongminyoung13@gmail.com</t>
+  </si>
+  <si>
+    <t>정민영</t>
+  </si>
+  <si>
+    <t>a35142191@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤재</t>
+  </si>
+  <si>
+    <t>cmin0945@gmail.com</t>
+  </si>
+  <si>
+    <t>조상민</t>
+  </si>
+  <si>
+    <t>you72460601@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털인문예술</t>
+  </si>
+  <si>
+    <t>유지원</t>
+  </si>
+  <si>
+    <t>yeon4262@naver.com</t>
+  </si>
+  <si>
+    <t>신수연</t>
+  </si>
+  <si>
+    <t>chltjdnjs2421@naver.com</t>
+  </si>
+  <si>
+    <t>최서원</t>
+  </si>
+  <si>
+    <t>aldidhd1112@naver.com</t>
+  </si>
+  <si>
+    <t>권효서</t>
+  </si>
+  <si>
+    <t>mjsong4130@gmail.com</t>
+  </si>
+  <si>
+    <t>송민재</t>
+  </si>
+  <si>
+    <t>soeunjeong0816@naver.com</t>
+  </si>
+  <si>
+    <t>정소은</t>
+  </si>
+  <si>
+    <t>soonbeom1130@naver.com</t>
+  </si>
+  <si>
+    <t>권순범</t>
+  </si>
+  <si>
+    <t>nyo07@naver.com</t>
+  </si>
+  <si>
+    <t>윤효라</t>
+  </si>
+  <si>
+    <t>jb9517asd@naver.com</t>
+  </si>
+  <si>
+    <t>곽우주</t>
+  </si>
+  <si>
+    <t>77sunhwa@gmail.com</t>
+  </si>
+  <si>
+    <t>박선화</t>
+  </si>
+  <si>
+    <t>cgb01045647472@gmail.com</t>
+  </si>
+  <si>
+    <t>경제학고ㅡ</t>
+  </si>
+  <si>
+    <t>최기백</t>
+  </si>
+  <si>
+    <t>sjhaa303028@naver.com</t>
+  </si>
+  <si>
+    <t>신중현</t>
+  </si>
+  <si>
+    <t>his86814189@gmail.com</t>
+  </si>
+  <si>
+    <t>황인성</t>
+  </si>
+  <si>
+    <t>benjamin27@naver.com</t>
+  </si>
+  <si>
+    <t>최재혁</t>
+  </si>
+  <si>
+    <t>ss0001234@naver.com</t>
+  </si>
+  <si>
+    <t>김세은</t>
+  </si>
+  <si>
+    <t>ksong1210@icloud.com</t>
+  </si>
+  <si>
+    <t>곽송</t>
+  </si>
+  <si>
+    <t>huiju4684@naver.com</t>
+  </si>
+  <si>
+    <t>강희주</t>
+  </si>
+  <si>
+    <t>aks186@naver.com</t>
+  </si>
+  <si>
+    <t>안준선</t>
+  </si>
+  <si>
+    <t>seok9431@gmail.com</t>
+  </si>
+  <si>
+    <t>김석주</t>
+  </si>
+  <si>
+    <t>jytoto33@naver.com</t>
+  </si>
+  <si>
+    <t>김지윤</t>
+  </si>
+  <si>
+    <t>Sinyewon921@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신예원 </t>
+  </si>
+  <si>
+    <t>ade1125@Naver.com</t>
+  </si>
+  <si>
+    <t>안다은</t>
+  </si>
+  <si>
+    <t>yeonju455@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미래융합스쿨 </t>
+  </si>
+  <si>
+    <t>정연주</t>
+  </si>
+  <si>
+    <t>thddnjs1030@naver.com</t>
+  </si>
+  <si>
+    <t>박송원</t>
+  </si>
+  <si>
+    <t>ydy7495@naver.com</t>
+  </si>
+  <si>
+    <t>윤다연</t>
+  </si>
+  <si>
+    <t>pumio2928@gmail.com</t>
+  </si>
+  <si>
+    <t>bagminhyeog534@gmail.com</t>
+  </si>
+  <si>
+    <t>박민혁</t>
+  </si>
+  <si>
+    <t>nwjcq14@naver.com</t>
+  </si>
+  <si>
+    <t>임미정</t>
+  </si>
+  <si>
+    <t>lgc01040089921@gmail.com</t>
+  </si>
+  <si>
+    <t>이감찬</t>
+  </si>
+  <si>
+    <t>corki1234@naver.com</t>
+  </si>
+  <si>
+    <t>윤서웅</t>
+  </si>
+  <si>
+    <t>7dhw010@gmail.com</t>
+  </si>
+  <si>
+    <t>동형원</t>
+  </si>
+  <si>
+    <t>goeunsue@naver.com</t>
+  </si>
+  <si>
+    <t>고은수</t>
+  </si>
+  <si>
+    <t>fruitekomi@naver.com</t>
+  </si>
+  <si>
+    <t>김예은</t>
+  </si>
+  <si>
+    <t>smsong1036@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바이오메디컬 </t>
+  </si>
+  <si>
+    <t>송승민</t>
+  </si>
+  <si>
+    <t>dudwndi09@naver.com</t>
+  </si>
+  <si>
+    <t>권영주</t>
+  </si>
+  <si>
+    <t>scjscj913@naver.com</t>
+  </si>
+  <si>
+    <t>최수정</t>
+  </si>
+  <si>
+    <t>juna324a324@naver.com</t>
+  </si>
+  <si>
+    <t>정준우</t>
+  </si>
+  <si>
+    <t>tlsh1282@naver.com</t>
+  </si>
+  <si>
+    <t>원세한</t>
+  </si>
+  <si>
+    <t>leeleeya1013@gmail.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>sowon051125@naver.com</t>
+  </si>
+  <si>
+    <t>이소원</t>
+  </si>
+  <si>
+    <t>jeongeun20050618@gmail.com</t>
+  </si>
+  <si>
+    <t>권정은</t>
+  </si>
+  <si>
+    <t>tmddl3538@naver.com</t>
+  </si>
+  <si>
+    <t>이승재</t>
+  </si>
+  <si>
+    <t>pjy35870859@gmail.com</t>
+  </si>
+  <si>
+    <t>박지연</t>
+  </si>
+  <si>
+    <t>hmg4898@naver.com</t>
+  </si>
+  <si>
+    <t>한민교</t>
+  </si>
+  <si>
+    <t>bhyejin420@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜진</t>
+  </si>
+  <si>
+    <t>dlalstmd03@gmail.com</t>
+  </si>
+  <si>
+    <t>이민승</t>
+  </si>
+  <si>
+    <t>abc6518@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체</t>
+  </si>
+  <si>
+    <t>박상준</t>
+  </si>
+  <si>
+    <t>tjtkdwns0909@naver.com</t>
+  </si>
+  <si>
+    <t>서상준</t>
+  </si>
+  <si>
+    <t>xodet0817@naver.com</t>
+  </si>
+  <si>
+    <t>문종윤</t>
+  </si>
+  <si>
+    <t>hizero0223@naver.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>jangjunhyeok1001@naver.com</t>
+  </si>
+  <si>
+    <t>빈도체 디스플레이</t>
+  </si>
+  <si>
+    <t>장준혁</t>
+  </si>
+  <si>
+    <t>bamddol2@gmail.com</t>
+  </si>
+  <si>
+    <t>조찬영</t>
+  </si>
+  <si>
+    <t>kdhmonkeyking@gmail.com</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>yeona0926@gmail.com</t>
+  </si>
+  <si>
+    <t>강연아</t>
+  </si>
+  <si>
+    <t>solar08230@naver.com</t>
+  </si>
+  <si>
+    <t>안다빈</t>
+  </si>
+  <si>
+    <t>skaskgus@gmail.com</t>
+  </si>
+  <si>
+    <t>남나현</t>
+  </si>
+  <si>
+    <t>tlsdmsco1130@naver.com</t>
+  </si>
+  <si>
+    <t>신은채</t>
   </si>
 </sst>
 </file>
@@ -2876,7 +3470,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -3032,25 +3626,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3094,9 +3674,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -3157,7 +3734,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N413" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N509" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -20298,44 +20875,3980 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="13">
+      <c r="A413" s="7">
         <v>45611.709958182866</v>
       </c>
-      <c r="B413" s="14" t="s">
+      <c r="B413" s="8" t="s">
         <v>943</v>
       </c>
-      <c r="C413" s="14" t="s">
+      <c r="C413" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D413" s="14">
+      <c r="D413" s="8">
         <v>2.0233605E7</v>
       </c>
-      <c r="E413" s="14" t="s">
+      <c r="E413" s="8" t="s">
         <v>944</v>
       </c>
-      <c r="F413" s="14" t="s">
+      <c r="F413" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G413" s="14" t="s">
+      <c r="G413" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H413" s="14" t="s">
+      <c r="H413" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I413" s="14" t="s">
+      <c r="I413" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J413" s="14" t="s">
+      <c r="J413" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K413" s="14" t="s">
+      <c r="K413" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L413" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N413" s="15" t="s">
+      <c r="L413" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N413" s="9" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="10">
+        <v>45611.730239895835</v>
+      </c>
+      <c r="B414" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="C414" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D414" s="11">
+        <v>2.0215115E7</v>
+      </c>
+      <c r="E414" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="F414" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G414" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H414" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I414" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J414" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K414" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L414" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M414" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="7">
+        <v>45611.88250577546</v>
+      </c>
+      <c r="B415" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D415" s="8">
+        <v>2.0182346E7</v>
+      </c>
+      <c r="E415" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="F415" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G415" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H415" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I415" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J415" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K415" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L415" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M415" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="10">
+        <v>45611.93243327546</v>
+      </c>
+      <c r="B416" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="C416" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D416" s="11">
+        <v>2.0205198E7</v>
+      </c>
+      <c r="E416" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="F416" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G416" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H416" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I416" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J416" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K416" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L416" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N416" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="7">
+        <v>45611.946005289356</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="C417" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D417" s="8">
+        <v>2.0243934E7</v>
+      </c>
+      <c r="E417" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="F417" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G417" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H417" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I417" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J417" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K417" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L417" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M417" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="10">
+        <v>45611.949060694446</v>
+      </c>
+      <c r="B418" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="C418" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D418" s="11">
+        <v>2.0245156E7</v>
+      </c>
+      <c r="E418" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="F418" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G418" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H418" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I418" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J418" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K418" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L418" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M418" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="7">
+        <v>45611.96228587963</v>
+      </c>
+      <c r="B419" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="C419" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D419" s="8">
+        <v>2.0246306E7</v>
+      </c>
+      <c r="E419" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="F419" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G419" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H419" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I419" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J419" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K419" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L419" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N419" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="10">
+        <v>45611.96824980324</v>
+      </c>
+      <c r="B420" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="C420" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="D420" s="11">
+        <v>2.0212749E7</v>
+      </c>
+      <c r="E420" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="F420" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G420" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H420" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I420" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J420" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K420" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L420" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N420" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="7">
+        <v>45611.97957002315</v>
+      </c>
+      <c r="B421" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="C421" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D421" s="8">
+        <v>2.023172E7</v>
+      </c>
+      <c r="E421" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="F421" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G421" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H421" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I421" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J421" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K421" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L421" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N421" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="10">
+        <v>45612.00939975695</v>
+      </c>
+      <c r="B422" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="C422" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D422" s="11">
+        <v>2.0242575E7</v>
+      </c>
+      <c r="E422" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="F422" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G422" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H422" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I422" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J422" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K422" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L422" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M422" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="7">
+        <v>45612.06882450232</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="C423" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D423" s="8">
+        <v>2.0246902E7</v>
+      </c>
+      <c r="E423" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="F423" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G423" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H423" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I423" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J423" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K423" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L423" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N423" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="10">
+        <v>45612.10083642361</v>
+      </c>
+      <c r="B424" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="C424" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D424" s="11">
+        <v>2.0222902E7</v>
+      </c>
+      <c r="E424" s="11" t="s">
+        <v>967</v>
+      </c>
+      <c r="F424" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G424" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H424" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I424" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J424" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K424" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L424" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N424" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="7">
+        <v>45612.11418924769</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="C425" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D425" s="8">
+        <v>2.0193626E7</v>
+      </c>
+      <c r="E425" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="F425" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G425" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H425" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I425" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J425" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K425" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L425" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N425" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="10">
+        <v>45612.11730204861</v>
+      </c>
+      <c r="B426" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="C426" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D426" s="11">
+        <v>2.0241047E7</v>
+      </c>
+      <c r="E426" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="F426" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G426" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H426" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I426" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J426" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K426" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L426" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N426" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="7">
+        <v>45612.1316871875</v>
+      </c>
+      <c r="B427" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="C427" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D427" s="8">
+        <v>2.0242411E7</v>
+      </c>
+      <c r="E427" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="F427" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G427" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H427" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I427" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J427" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K427" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L427" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N427" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="10">
+        <v>45612.21968804398</v>
+      </c>
+      <c r="B428" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="C428" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D428" s="11">
+        <v>2.0241038E7</v>
+      </c>
+      <c r="E428" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="F428" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G428" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H428" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I428" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J428" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K428" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L428" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M428" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="7">
+        <v>45612.3312470949</v>
+      </c>
+      <c r="B429" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D429" s="8">
+        <v>2.0242628E7</v>
+      </c>
+      <c r="E429" s="8" t="s">
+        <v>977</v>
+      </c>
+      <c r="F429" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G429" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H429" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I429" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J429" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K429" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L429" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N429" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="10">
+        <v>45612.375846967596</v>
+      </c>
+      <c r="B430" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="C430" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D430" s="11">
+        <v>2.0202719E7</v>
+      </c>
+      <c r="E430" s="11" t="s">
+        <v>979</v>
+      </c>
+      <c r="F430" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G430" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H430" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I430" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J430" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K430" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L430" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M430" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="7">
+        <v>45612.432631874995</v>
+      </c>
+      <c r="B431" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="C431" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="D431" s="8">
+        <v>2.0231033E7</v>
+      </c>
+      <c r="E431" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="F431" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G431" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H431" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I431" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J431" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K431" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L431" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M431" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="10">
+        <v>45612.470198055555</v>
+      </c>
+      <c r="B432" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="C432" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D432" s="11">
+        <v>2.0243002E7</v>
+      </c>
+      <c r="E432" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="F432" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G432" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H432" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I432" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J432" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K432" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L432" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M432" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="7">
+        <v>45612.48548873843</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="C433" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D433" s="8">
+        <v>2.0246649E7</v>
+      </c>
+      <c r="E433" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="F433" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G433" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H433" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I433" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J433" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K433" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L433" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N433" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="10">
+        <v>45612.55872763889</v>
+      </c>
+      <c r="B434" s="11" t="s">
+        <v>985</v>
+      </c>
+      <c r="C434" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="D434" s="11">
+        <v>2.0212846E7</v>
+      </c>
+      <c r="E434" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="F434" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G434" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H434" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I434" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J434" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K434" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L434" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N434" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="7">
+        <v>45612.56342734954</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D435" s="8">
+        <v>2.0243712E7</v>
+      </c>
+      <c r="E435" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="F435" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G435" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H435" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I435" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J435" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K435" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L435" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M435" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="10">
+        <v>45612.57123339121</v>
+      </c>
+      <c r="B436" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="C436" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D436" s="11">
+        <v>2.0223504E7</v>
+      </c>
+      <c r="E436" s="11" t="s">
+        <v>990</v>
+      </c>
+      <c r="F436" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G436" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H436" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I436" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J436" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K436" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L436" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N436" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="7">
+        <v>45612.58415605324</v>
+      </c>
+      <c r="B437" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="C437" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D437" s="8">
+        <v>2.0246293E7</v>
+      </c>
+      <c r="E437" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="F437" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G437" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H437" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I437" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J437" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K437" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L437" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N437" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="10">
+        <v>45612.61387361111</v>
+      </c>
+      <c r="B438" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="C438" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D438" s="11">
+        <v>2.0207133E7</v>
+      </c>
+      <c r="E438" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="F438" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G438" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H438" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I438" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J438" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K438" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L438" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M438" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="7">
+        <v>45612.626374363426</v>
+      </c>
+      <c r="B439" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="C439" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D439" s="8">
+        <v>2.024677E7</v>
+      </c>
+      <c r="E439" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="F439" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G439" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H439" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I439" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J439" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K439" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L439" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M439" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="10">
+        <v>45612.63535570602</v>
+      </c>
+      <c r="B440" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="C440" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="D440" s="11">
+        <v>2.0227091E7</v>
+      </c>
+      <c r="E440" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="F440" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G440" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H440" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I440" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J440" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K440" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L440" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M440" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="7">
+        <v>45612.63832795139</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C441" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D441" s="8">
+        <v>2.0243646E7</v>
+      </c>
+      <c r="E441" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F441" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G441" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H441" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I441" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J441" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K441" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L441" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N441" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="10">
+        <v>45612.65237226852</v>
+      </c>
+      <c r="B442" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C442" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D442" s="11">
+        <v>2.0231733E7</v>
+      </c>
+      <c r="E442" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F442" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G442" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H442" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I442" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J442" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K442" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L442" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N442" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="7">
+        <v>45612.66677844907</v>
+      </c>
+      <c r="B443" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C443" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D443" s="8">
+        <v>2.0236615E7</v>
+      </c>
+      <c r="E443" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F443" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G443" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H443" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I443" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J443" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K443" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L443" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M443" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="10">
+        <v>45612.673797627314</v>
+      </c>
+      <c r="B444" s="11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C444" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D444" s="11">
+        <v>2.0243225E7</v>
+      </c>
+      <c r="E444" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F444" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G444" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H444" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I444" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J444" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K444" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L444" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N444" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="7">
+        <v>45612.70514972223</v>
+      </c>
+      <c r="B445" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C445" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D445" s="8">
+        <v>2.0192737E7</v>
+      </c>
+      <c r="E445" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F445" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G445" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H445" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I445" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J445" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K445" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L445" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M445" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="10">
+        <v>45612.718481944445</v>
+      </c>
+      <c r="B446" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C446" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D446" s="11">
+        <v>2.0221007E7</v>
+      </c>
+      <c r="E446" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F446" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G446" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H446" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I446" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J446" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K446" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L446" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N446" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="7">
+        <v>45612.7250659375</v>
+      </c>
+      <c r="B447" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C447" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D447" s="8">
+        <v>2.0203046E7</v>
+      </c>
+      <c r="E447" s="8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F447" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G447" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H447" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I447" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J447" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K447" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L447" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M447" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="10">
+        <v>45612.735888298615</v>
+      </c>
+      <c r="B448" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C448" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D448" s="11">
+        <v>2.0212613E7</v>
+      </c>
+      <c r="E448" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F448" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G448" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H448" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I448" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J448" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K448" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L448" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M448" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="7">
+        <v>45612.73806894676</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C449" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D449" s="8">
+        <v>2.024152E7</v>
+      </c>
+      <c r="E449" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F449" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G449" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H449" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I449" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J449" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K449" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L449" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N449" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="10">
+        <v>45612.76220438657</v>
+      </c>
+      <c r="B450" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C450" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D450" s="11">
+        <v>2.0246281E7</v>
+      </c>
+      <c r="E450" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F450" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G450" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H450" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I450" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J450" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K450" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L450" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M450" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="7">
+        <v>45612.76457842592</v>
+      </c>
+      <c r="B451" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C451" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D451" s="8">
+        <v>2.0243241E7</v>
+      </c>
+      <c r="E451" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F451" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G451" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H451" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I451" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J451" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K451" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L451" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N451" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="10">
+        <v>45612.784676655094</v>
+      </c>
+      <c r="B452" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C452" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D452" s="11">
+        <v>2.0246776E7</v>
+      </c>
+      <c r="E452" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F452" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G452" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H452" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I452" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J452" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K452" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L452" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M452" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="7">
+        <v>45612.78689912037</v>
+      </c>
+      <c r="B453" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C453" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D453" s="8">
+        <v>2.0201721E7</v>
+      </c>
+      <c r="E453" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F453" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G453" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H453" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I453" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J453" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K453" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L453" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M453" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="10">
+        <v>45612.80867195602</v>
+      </c>
+      <c r="B454" s="11" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C454" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D454" s="11">
+        <v>2.0223325E7</v>
+      </c>
+      <c r="E454" s="11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F454" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G454" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H454" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I454" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J454" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K454" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L454" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N454" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="7">
+        <v>45612.822202615745</v>
+      </c>
+      <c r="B455" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C455" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D455" s="8">
+        <v>2.0242848E7</v>
+      </c>
+      <c r="E455" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F455" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G455" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H455" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I455" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J455" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K455" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L455" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N455" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="10">
+        <v>45612.86039803241</v>
+      </c>
+      <c r="B456" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C456" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D456" s="11">
+        <v>2.0172808E7</v>
+      </c>
+      <c r="E456" s="11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F456" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G456" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H456" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I456" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J456" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K456" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L456" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N456" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="7">
+        <v>45612.86579565972</v>
+      </c>
+      <c r="B457" s="8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C457" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D457" s="8">
+        <v>2.0236736E7</v>
+      </c>
+      <c r="E457" s="8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F457" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G457" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H457" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I457" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J457" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K457" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L457" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N457" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="10">
+        <v>45612.86638315972</v>
+      </c>
+      <c r="B458" s="11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C458" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D458" s="11">
+        <v>2.0243648E7</v>
+      </c>
+      <c r="E458" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F458" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G458" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H458" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I458" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J458" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K458" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L458" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N458" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="7">
+        <v>45612.87427509259</v>
+      </c>
+      <c r="B459" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C459" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D459" s="8">
+        <v>2.0235112E7</v>
+      </c>
+      <c r="E459" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F459" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G459" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H459" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I459" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J459" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K459" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L459" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N459" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="10">
+        <v>45612.928333414355</v>
+      </c>
+      <c r="B460" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C460" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D460" s="11">
+        <v>2.0217087E7</v>
+      </c>
+      <c r="E460" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F460" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G460" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H460" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I460" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J460" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K460" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L460" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M460" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="7">
+        <v>45612.92919702546</v>
+      </c>
+      <c r="B461" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C461" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D461" s="8">
+        <v>2.0245109E7</v>
+      </c>
+      <c r="E461" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F461" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G461" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H461" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I461" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J461" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K461" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L461" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M461" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="10">
+        <v>45612.9487250463</v>
+      </c>
+      <c r="B462" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C462" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D462" s="11">
+        <v>2.0242956E7</v>
+      </c>
+      <c r="E462" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F462" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G462" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H462" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I462" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J462" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K462" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L462" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M462" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="7">
+        <v>45612.94979670139</v>
+      </c>
+      <c r="B463" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C463" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D463" s="8">
+        <v>2.0193003E7</v>
+      </c>
+      <c r="E463" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F463" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G463" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H463" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I463" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J463" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K463" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L463" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N463" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="10">
+        <v>45612.94988335649</v>
+      </c>
+      <c r="B464" s="11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C464" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D464" s="11">
+        <v>2.0246741E7</v>
+      </c>
+      <c r="E464" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F464" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G464" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H464" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I464" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J464" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K464" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L464" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N464" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="7">
+        <v>45612.95088775463</v>
+      </c>
+      <c r="B465" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C465" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D465" s="8">
+        <v>2.0246942E7</v>
+      </c>
+      <c r="E465" s="8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F465" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G465" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H465" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I465" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J465" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K465" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L465" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M465" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="10">
+        <v>45612.95394936342</v>
+      </c>
+      <c r="B466" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C466" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D466" s="11">
+        <v>2.0212583E7</v>
+      </c>
+      <c r="E466" s="11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F466" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G466" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H466" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I466" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J466" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K466" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L466" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M466" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="7">
+        <v>45612.95483887731</v>
+      </c>
+      <c r="B467" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C467" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D467" s="8">
+        <v>2.0203211E7</v>
+      </c>
+      <c r="E467" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F467" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G467" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H467" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I467" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J467" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K467" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L467" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M467" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="10">
+        <v>45612.95982986111</v>
+      </c>
+      <c r="B468" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C468" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D468" s="11">
+        <v>2.0242304E7</v>
+      </c>
+      <c r="E468" s="11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F468" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G468" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H468" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I468" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J468" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K468" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L468" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M468" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="7">
+        <v>45612.96235707176</v>
+      </c>
+      <c r="B469" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C469" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D469" s="8">
+        <v>2.0217097E7</v>
+      </c>
+      <c r="E469" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F469" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G469" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H469" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I469" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J469" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K469" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L469" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N469" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="10">
+        <v>45612.96340228009</v>
+      </c>
+      <c r="B470" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C470" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D470" s="11">
+        <v>2.0232728E7</v>
+      </c>
+      <c r="E470" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F470" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G470" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H470" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I470" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J470" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K470" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L470" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N470" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="7">
+        <v>45612.96491792824</v>
+      </c>
+      <c r="B471" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C471" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D471" s="8">
+        <v>2.0243907E7</v>
+      </c>
+      <c r="E471" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F471" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G471" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H471" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I471" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J471" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K471" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L471" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M471" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="10">
+        <v>45612.96581243056</v>
+      </c>
+      <c r="B472" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C472" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D472" s="11">
+        <v>2.0243912E7</v>
+      </c>
+      <c r="E472" s="11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F472" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G472" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H472" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I472" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J472" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K472" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L472" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M472" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="7">
+        <v>45612.9702575463</v>
+      </c>
+      <c r="B473" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C473" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="D473" s="8">
+        <v>2.0243821E7</v>
+      </c>
+      <c r="E473" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F473" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G473" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H473" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I473" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J473" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K473" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L473" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M473" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="10">
+        <v>45612.97462253472</v>
+      </c>
+      <c r="B474" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C474" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D474" s="11">
+        <v>2.0232548E7</v>
+      </c>
+      <c r="E474" s="11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F474" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G474" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H474" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I474" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J474" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K474" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L474" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N474" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="7">
+        <v>45612.983189085644</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C475" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D475" s="8">
+        <v>2.0226638E7</v>
+      </c>
+      <c r="E475" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F475" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G475" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H475" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I475" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J475" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K475" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L475" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N475" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="10">
+        <v>45612.988480879634</v>
+      </c>
+      <c r="B476" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C476" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D476" s="11">
+        <v>2.0171035E7</v>
+      </c>
+      <c r="E476" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F476" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G476" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H476" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I476" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J476" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K476" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L476" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M476" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="7">
+        <v>45612.9886036574</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C477" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D477" s="8">
+        <v>2.0242423E7</v>
+      </c>
+      <c r="E477" s="8" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F477" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G477" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H477" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I477" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J477" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K477" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L477" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N477" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="10">
+        <v>45612.99329239583</v>
+      </c>
+      <c r="B478" s="11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C478" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="D478" s="11">
+        <v>2.0232527E7</v>
+      </c>
+      <c r="E478" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F478" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G478" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H478" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I478" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J478" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K478" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L478" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N478" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="7">
+        <v>45612.995437627316</v>
+      </c>
+      <c r="B479" s="8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C479" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D479" s="8">
+        <v>2.024232E7</v>
+      </c>
+      <c r="E479" s="8" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F479" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G479" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H479" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I479" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J479" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K479" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L479" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N479" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="10">
+        <v>45612.996029560185</v>
+      </c>
+      <c r="B480" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C480" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D480" s="11">
+        <v>2.0216631E7</v>
+      </c>
+      <c r="E480" s="11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F480" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G480" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H480" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I480" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J480" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K480" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L480" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M480" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="7">
+        <v>45612.99963877315</v>
+      </c>
+      <c r="B481" s="8" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C481" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D481" s="8">
+        <v>2.0242995E7</v>
+      </c>
+      <c r="E481" s="8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F481" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G481" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H481" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I481" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J481" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K481" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L481" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M481" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="10">
+        <v>45613.01166320602</v>
+      </c>
+      <c r="B482" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C482" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D482" s="11">
+        <v>2.0211523E7</v>
+      </c>
+      <c r="E482" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F482" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G482" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H482" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I482" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J482" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K482" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L482" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M482" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="7">
+        <v>45613.01312725694</v>
+      </c>
+      <c r="B483" s="8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C483" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="D483" s="8">
+        <v>2.0243314E7</v>
+      </c>
+      <c r="E483" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F483" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G483" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H483" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I483" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J483" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K483" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L483" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M483" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="10">
+        <v>45613.01579493056</v>
+      </c>
+      <c r="B484" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C484" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D484" s="11">
+        <v>2.0242907E7</v>
+      </c>
+      <c r="E484" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F484" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G484" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H484" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I484" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J484" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K484" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L484" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N484" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="7">
+        <v>45613.02253321759</v>
+      </c>
+      <c r="B485" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C485" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D485" s="8">
+        <v>2.023371E7</v>
+      </c>
+      <c r="E485" s="8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F485" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G485" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H485" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I485" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J485" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K485" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L485" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N485" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="10">
+        <v>45613.02351584491</v>
+      </c>
+      <c r="B486" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C486" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D486" s="11">
+        <v>2.0243624E7</v>
+      </c>
+      <c r="E486" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F486" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G486" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H486" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I486" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J486" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K486" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L486" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M486" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="7">
+        <v>45613.02973790509</v>
+      </c>
+      <c r="B487" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C487" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D487" s="8">
+        <v>2.0212603E7</v>
+      </c>
+      <c r="E487" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F487" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G487" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H487" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I487" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J487" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K487" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L487" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M487" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="10">
+        <v>45613.038227060184</v>
+      </c>
+      <c r="B488" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C488" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D488" s="11">
+        <v>2.021718E7</v>
+      </c>
+      <c r="E488" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F488" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G488" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H488" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I488" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J488" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K488" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L488" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M488" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="7">
+        <v>45613.04157717593</v>
+      </c>
+      <c r="B489" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C489" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D489" s="8">
+        <v>2.0192983E7</v>
+      </c>
+      <c r="E489" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F489" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G489" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H489" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I489" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J489" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K489" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L489" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M489" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="10">
+        <v>45613.04159129629</v>
+      </c>
+      <c r="B490" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C490" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="D490" s="11">
+        <v>2.0206623E7</v>
+      </c>
+      <c r="E490" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F490" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G490" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H490" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I490" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J490" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K490" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L490" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N490" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="7">
+        <v>45613.045521747685</v>
+      </c>
+      <c r="B491" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C491" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D491" s="8">
+        <v>2.024661E7</v>
+      </c>
+      <c r="E491" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F491" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G491" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H491" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I491" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J491" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K491" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L491" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M491" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="10">
+        <v>45613.04842037037</v>
+      </c>
+      <c r="B492" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C492" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D492" s="11">
+        <v>2.0243238E7</v>
+      </c>
+      <c r="E492" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F492" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G492" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H492" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I492" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J492" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K492" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L492" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M492" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="7">
+        <v>45613.06756319445</v>
+      </c>
+      <c r="B493" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C493" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D493" s="8">
+        <v>2.0243703E7</v>
+      </c>
+      <c r="E493" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F493" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G493" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H493" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I493" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J493" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K493" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L493" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N493" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="10">
+        <v>45613.07409084491</v>
+      </c>
+      <c r="B494" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C494" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D494" s="11">
+        <v>2.0227037E7</v>
+      </c>
+      <c r="E494" s="11" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F494" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G494" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H494" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I494" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J494" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K494" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L494" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M494" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="7">
+        <v>45613.079241099535</v>
+      </c>
+      <c r="B495" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C495" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D495" s="8">
+        <v>2.0242618E7</v>
+      </c>
+      <c r="E495" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F495" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G495" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H495" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I495" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J495" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K495" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L495" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M495" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="10">
+        <v>45613.121412673616</v>
+      </c>
+      <c r="B496" s="11" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C496" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="D496" s="11">
+        <v>2.0191106E7</v>
+      </c>
+      <c r="E496" s="11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F496" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G496" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H496" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I496" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J496" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K496" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L496" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N496" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="7">
+        <v>45613.13815828704</v>
+      </c>
+      <c r="B497" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C497" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D497" s="8">
+        <v>2.0245176E7</v>
+      </c>
+      <c r="E497" s="8" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F497" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G497" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H497" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I497" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J497" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K497" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L497" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M497" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="10">
+        <v>45613.2159640162</v>
+      </c>
+      <c r="B498" s="11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C498" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D498" s="11">
+        <v>2.0227143E7</v>
+      </c>
+      <c r="E498" s="11" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F498" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G498" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H498" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I498" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J498" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K498" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L498" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M498" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="7">
+        <v>45613.273142986116</v>
+      </c>
+      <c r="B499" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C499" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D499" s="8">
+        <v>2.0203322E7</v>
+      </c>
+      <c r="E499" s="8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F499" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G499" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H499" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I499" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J499" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K499" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L499" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M499" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="10">
+        <v>45613.31109434028</v>
+      </c>
+      <c r="B500" s="11" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C500" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D500" s="11">
+        <v>2.0244123E7</v>
+      </c>
+      <c r="E500" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F500" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G500" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H500" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I500" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J500" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K500" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L500" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M500" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="7">
+        <v>45613.33550077546</v>
+      </c>
+      <c r="B501" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C501" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D501" s="8">
+        <v>2.0203616E7</v>
+      </c>
+      <c r="E501" s="8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F501" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G501" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H501" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I501" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J501" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K501" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L501" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N501" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="10">
+        <v>45613.33577961806</v>
+      </c>
+      <c r="B502" s="11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C502" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D502" s="11">
+        <v>2.0243038E7</v>
+      </c>
+      <c r="E502" s="11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F502" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G502" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H502" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I502" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J502" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K502" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L502" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M502" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="7">
+        <v>45613.34012072917</v>
+      </c>
+      <c r="B503" s="8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C503" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D503" s="8">
+        <v>2.0193341E7</v>
+      </c>
+      <c r="E503" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F503" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G503" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H503" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I503" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J503" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K503" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L503" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N503" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="10">
+        <v>45613.342386261575</v>
+      </c>
+      <c r="B504" s="11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C504" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D504" s="11">
+        <v>2.0161632E7</v>
+      </c>
+      <c r="E504" s="11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F504" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G504" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H504" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I504" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J504" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K504" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L504" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M504" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="7">
+        <v>45613.351256979164</v>
+      </c>
+      <c r="B505" s="8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C505" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D505" s="8">
+        <v>2.024151E7</v>
+      </c>
+      <c r="E505" s="8" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F505" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G505" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H505" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I505" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J505" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K505" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L505" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N505" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="10">
+        <v>45613.35156894676</v>
+      </c>
+      <c r="B506" s="11" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C506" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D506" s="11">
+        <v>2.0246203E7</v>
+      </c>
+      <c r="E506" s="11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F506" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G506" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H506" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I506" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J506" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K506" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L506" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M506" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="7">
+        <v>45613.380008611115</v>
+      </c>
+      <c r="B507" s="8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C507" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D507" s="8">
+        <v>2.0221717E7</v>
+      </c>
+      <c r="E507" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F507" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G507" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H507" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I507" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J507" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K507" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L507" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M507" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="10">
+        <v>45613.42798204861</v>
+      </c>
+      <c r="B508" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C508" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D508" s="11">
+        <v>2.0202324E7</v>
+      </c>
+      <c r="E508" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F508" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G508" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H508" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I508" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J508" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K508" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L508" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M508" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="13">
+        <v>45613.43532340278</v>
+      </c>
+      <c r="B509" s="14" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C509" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D509" s="14">
+        <v>2.0242532E7</v>
+      </c>
+      <c r="E509" s="14" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F509" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G509" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H509" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I509" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J509" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K509" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L509" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M509" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
